--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>426000</v>
+      </c>
+      <c r="F8" s="3">
         <v>323500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>335500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>271600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>194800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>388100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>250800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>185500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>361000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>674900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>350100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>249800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>314700</v>
+      </c>
+      <c r="F9" s="3">
         <v>189800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>248800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>213700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>101200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>281900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>170900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>140700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>272100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>577600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>317600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>276300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>111300</v>
+      </c>
+      <c r="F10" s="3">
         <v>133700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>86700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>57900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>93600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>106200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>79900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>44800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>88900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>97300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>32500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-26500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F12" s="3">
         <v>5600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>8900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,49 +983,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-771000</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
         <v>244400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>4300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>33900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>24400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>39500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>115700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>29700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>224500</v>
+        <v>292800</v>
       </c>
       <c r="E17" s="3">
+        <v>351700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>225500</v>
+      </c>
+      <c r="G17" s="3">
         <v>283900</v>
       </c>
-      <c r="F17" s="3">
-        <v>-519000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>252000</v>
+      </c>
+      <c r="I17" s="3">
         <v>378800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>319200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>211900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>190600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>331600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>762200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>448300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>346700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>99000</v>
+        <v>-39800</v>
       </c>
       <c r="E18" s="3">
+        <v>74300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>98000</v>
+      </c>
+      <c r="G18" s="3">
         <v>51600</v>
       </c>
-      <c r="F18" s="3">
-        <v>790600</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-184000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>68900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>38900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>29400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-87300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-98200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-96900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1145,213 +1210,245 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2900</v>
+        <v>6700</v>
       </c>
       <c r="E20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-769400</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>69500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>763200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>22300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>250000</v>
+      </c>
+      <c r="F21" s="3">
         <v>171200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>168100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>109500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>233900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>230100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>160000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>791200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>73100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>74700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-54300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-44700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F22" s="3">
         <v>33400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>33800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>33600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>31000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>30900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>33700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>34100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>47700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>166300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>49400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>47700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F23" s="3">
         <v>68500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>18300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-12400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-218300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>34900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>74700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>724000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-16100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-231300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-146400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-145300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F24" s="3">
         <v>5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-24400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>15200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>20800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F26" s="3">
         <v>62900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-193900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>32300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>66000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>708800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-29400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-236700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-167200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-147600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>62300</v>
+      </c>
+      <c r="F27" s="3">
         <v>62400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-18600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-191000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>30500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>64000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>706900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-31600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-235700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-169200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-144100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1514,49 +1629,61 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="F29" s="3">
         <v>-22000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-113200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-15300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-600000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-33700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-16600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-61700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-45300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2900</v>
+        <v>-6700</v>
       </c>
       <c r="E32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>769400</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-69500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-763200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-22300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F33" s="3">
         <v>40400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-33900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-791000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>47400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>645200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-76900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-438000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-169200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-144100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F35" s="3">
         <v>40400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-33900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-791000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>47400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>645200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-76900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-438000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-169200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-144100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>623500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>610500</v>
+      </c>
+      <c r="F41" s="3">
         <v>595600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>441200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>475100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>434100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>412200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>446900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>538100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>315400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>333200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>314800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>391100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,295 +2142,343 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>394300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>520900</v>
+      </c>
+      <c r="F43" s="3">
         <v>452000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>579800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>500800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>592300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>474500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>420800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>467500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>584200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>543100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>556700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>467200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>200100</v>
+      </c>
+      <c r="F44" s="3">
         <v>207800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>204100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>204800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>204800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>235500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>240100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>246900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>239300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>286900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>282400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>277000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>256600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>433300</v>
+      </c>
+      <c r="F45" s="3">
         <v>320400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>345100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>466400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>294600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>113500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>126600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>138000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>131600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>152100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>138600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>500800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1481200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1764800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1575800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1570200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1647100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1525800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1235700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1234400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1390500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1270500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1315300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1292500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1636100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F47" s="3">
         <v>30200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>32500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>32500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>31200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>254500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>260800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>255900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>255300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>262800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>279500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>197300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F48" s="3">
         <v>317600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>325900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>345400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>189200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>312800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>317700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>331100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>330300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>328800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>350100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>378300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1835100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1897700</v>
+      </c>
+      <c r="F49" s="3">
         <v>2083700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2076700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2103900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2127900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2501600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2575300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2564400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2386200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2378000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2395100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2412300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F52" s="3">
         <v>25700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>28000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>24400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>22600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>18400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>18000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>21800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>21900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>34100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>22200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>28500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3733600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4012600</v>
+      </c>
+      <c r="F54" s="3">
         <v>4033000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4033300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4153300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3896700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4323000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4406200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4563700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4264200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4319000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4339400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4652500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2748,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>117400</v>
+      </c>
+      <c r="F57" s="3">
         <v>114000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>154600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>139600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>126400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>131200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>124800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>166900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>169900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>166400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>143100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>156500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F58" s="3">
         <v>72500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>54500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>87800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>17800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>35400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>22400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>18500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2903000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2850900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2759200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2662900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>580900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>901200</v>
+      </c>
+      <c r="F59" s="3">
         <v>892400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>874200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>894100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>776100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>396100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>499300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>517900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>409400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>422000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>401500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>563700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>765500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1066100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1078900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1083300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1121500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>920300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>562700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>646500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>703300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3482300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3439300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3303800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3383100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1258700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1266600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1254900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1269800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1255600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1148900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1145700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1140400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1178900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>52300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>53000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>52600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>63100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>72500</v>
+      </c>
+      <c r="F62" s="3">
         <v>119300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>128200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>125900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>153400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>169500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>177000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>191400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>201500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>207100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>206500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>199200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2283100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2450900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2497400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2526600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2546100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2265200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1919500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2005500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2115600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3775100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3736000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3598200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3680800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1650400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1554600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-718900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-718500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-688100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-829600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1450500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1561700</v>
+      </c>
+      <c r="F76" s="3">
         <v>1535600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1506700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1607200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1631500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2403500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2400700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2448100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>489100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>583000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>741200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>971700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F81" s="3">
         <v>40400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-33900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-791000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>47400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>645200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-76900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-438000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-169200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-144100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3825,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>147300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>172600</v>
+      </c>
+      <c r="F83" s="3">
         <v>69300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>116000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>88300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>396100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>170400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>61400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>42300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>41500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>139700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>42700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>52900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>110500</v>
+      </c>
+      <c r="F89" s="3">
         <v>259700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>88100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>125500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>87200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>66800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>84900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>117000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>73400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-18300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="F91" s="3">
         <v>36300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-17800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-18600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-19500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-23400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-16900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-31000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-50200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-17500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-19400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-78300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-71400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-74800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-58800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-51100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-87100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-85200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-77400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-118000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-185200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-60400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-61300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4564,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-19700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-48100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-24500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-36000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-8600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-63700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>299100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-15200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-101500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-14900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-70300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-14200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-18100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>7700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F102" s="3">
         <v>154400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-33900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>41000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>21900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-34700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-91200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>222700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-17800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-205600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-76300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-147700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>238700</v>
+      </c>
+      <c r="E8" s="3">
         <v>253000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>426000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>323500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>335500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>271600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>194800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>388100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>250800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>185500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>361000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>674900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>350100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>249800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>193800</v>
+      </c>
+      <c r="E9" s="3">
         <v>188700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>314700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>189800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>248800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>213700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>101200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>281900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>170900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>140700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>272100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>577600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>317600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>276300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E10" s="3">
         <v>64300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>111300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>133700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>86700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>57900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>93600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>106200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>79900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>88900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>97300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E12" s="3">
         <v>4400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,35 +1029,38 @@
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
         <v>244400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>24400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>115700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E17" s="3">
         <v>292800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>351700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>225500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>283900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>252000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>378800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>319200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>211900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>190600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>331600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>762200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>448300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>346700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-39800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>74300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>98000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>51600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-184000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-87300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-98200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-96900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E20" s="3">
         <v>6700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>69500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>763200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>114200</v>
+        <v>142400</v>
       </c>
       <c r="E21" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F21" s="3">
         <v>250000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>171200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>168100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>109500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>233900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>230100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>160000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>791200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>73100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>74700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-54300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E22" s="3">
         <v>33900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>30900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>166300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>49400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-67000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>43000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>68500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-218300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>74700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>724000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-231300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-146400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-145300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E24" s="3">
         <v>4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-20100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-24400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-133600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-71800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>63100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>62900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-193900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>708800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-29400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-236700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-167200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-147600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-134100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-72500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>62300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>62400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-191000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>64000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>706900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-235700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-169200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,46 +1693,49 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-26900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-37200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-22000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-113200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-15300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-600000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-33700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-16600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-61700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-45300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-69500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-763200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-99400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-33900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-791000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>645200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-76900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-438000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-169200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-99400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-33900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-791000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>645200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-76900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-438000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-169200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>545700</v>
+      </c>
+      <c r="E41" s="3">
         <v>623500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>610500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>595600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>441200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>475100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>434100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>412200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>446900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>538100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>315400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>333200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>314800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>391100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,337 +2238,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>332600</v>
+      </c>
+      <c r="E43" s="3">
         <v>394300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>520900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>452000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>579800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>592300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>474500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>420800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>467500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>584200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>543100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>556700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>467200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E44" s="3">
         <v>206800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>207800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>204100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>204800</v>
       </c>
       <c r="I44" s="3">
         <v>204800</v>
       </c>
       <c r="J44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="K44" s="3">
         <v>235500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>240100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>246900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>239300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>286900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>282400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>277000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E45" s="3">
         <v>256600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>433300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>320400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>345100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>466400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>294600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>113500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>126600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>138000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>152100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>138600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1324400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1481200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1764800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1575800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1570200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1647100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1525800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1235700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1234400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1390500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1270500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1315300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1292500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1636100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E47" s="3">
         <v>70300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>30400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>32500</v>
       </c>
       <c r="H47" s="3">
         <v>32500</v>
       </c>
       <c r="I47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J47" s="3">
         <v>31200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>254500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>260800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>255900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>255300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>262800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>279500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>197300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>276800</v>
+      </c>
+      <c r="E48" s="3">
         <v>287800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>317600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>325900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>345400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>189200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>312800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>317700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>331100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>330300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>328800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>350100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>378300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1817000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1835100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1897700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2083700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2076700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2103900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2127900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2501600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2575300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2564400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2386200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2378000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2395100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2412300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E52" s="3">
         <v>59200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>34100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3474600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3733600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4012600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4033000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4033300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4153300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3896700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4323000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4406200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4563700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4264200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4319000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4339400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4652500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E57" s="3">
         <v>114800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>117400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>114000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>154600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>139600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>126400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>131200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>124800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>166900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>169900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>166400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>143100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>156500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E58" s="3">
         <v>69800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>47500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>72500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>54500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>87800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>35400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2903000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2850900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2759200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2662900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E59" s="3">
         <v>580900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>901200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>892400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>874200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>894100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>776100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>396100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>499300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>517900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>409400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>422000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>401500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>563700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>681900</v>
+      </c>
+      <c r="E60" s="3">
         <v>765500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1066100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1078900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1083300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1121500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>920300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>562700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>646500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>703300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3482300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3439300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3303800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3383100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1273000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1258700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1266600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1254900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1269800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1255600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1148900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1145700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1140400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1178900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>52300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>53000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>52600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>63100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E62" s="3">
         <v>212900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>72500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>119300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>128200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>125900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>153400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>169500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>177000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>191400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>201500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>207100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>206500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>199200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2167700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2283100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2450900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2497400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2526600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2546100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2265200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1919500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2005500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2115600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3775100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3736000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3598200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3680800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-300400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-718900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-718500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-688100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-829600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1306900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1450500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1561700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1535600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1506700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1607200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1631500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2403500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2400700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2448100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>489100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>583000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>741200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>971700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-147200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-99400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-33900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-791000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>645200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-76900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-438000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-169200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>147300</v>
+        <v>209900</v>
       </c>
       <c r="E83" s="3">
+        <v>77300</v>
+      </c>
+      <c r="F83" s="3">
         <v>172600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>69300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>116000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>88300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>396100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>170400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>139700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E89" s="3">
         <v>125900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>110500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>259700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>88100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>125500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>66800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>117000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>73400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-75200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>36300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-50200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-78300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-56500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-71400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-87100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-85200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-77400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-118000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-185200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-60400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-49300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-48100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-24500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-63700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>299100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-101500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="E102" s="3">
         <v>13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>154400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>41000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-91200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>222700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-205600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-76300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-147700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E8" s="3">
         <v>238700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>253000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>426000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>323500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>335500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>271600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>194800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>388100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>250800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>185500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>361000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>674900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>350100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>249800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>155900</v>
+      </c>
+      <c r="E9" s="3">
         <v>193800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>188700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>314700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>189800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>248800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>213700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>101200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>281900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>170900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>140700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>272100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>577600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>317600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>276300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E10" s="3">
         <v>44900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>111300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>133700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>86700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>57900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>93600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>106200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>79900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>88900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>97300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-26500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,35 +1052,38 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
         <v>244400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>33900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>24400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>39500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>115700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>29700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E17" s="3">
         <v>271000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>292800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>351700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>225500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>283900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>252000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>378800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>319200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>211900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>190600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>331600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>762200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>448300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>346700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-39800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>74300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>98000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>51600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-184000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-87300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-98200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-96900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-35200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>69500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>763200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>22300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E21" s="3">
         <v>142400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>250000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>171200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>168100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>109500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>233900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>230100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>160000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>791200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>73100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>74700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-54300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-44700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E22" s="3">
         <v>33300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>31000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>166300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>49400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-88500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-67000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>43000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>68500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-218300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>74700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>724000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-16100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-231300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-146400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-145300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>32800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-20100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-24400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-87700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-133600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-71800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>63100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>62900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-193900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>66000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>708800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-29400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-236700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-167200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-147600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-134100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-72500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>62300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-191000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>64000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>706900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-235700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-169200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-144100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,49 +1754,52 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-13100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-26900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-37200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-22000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-113200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-15300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-600000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-33700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-16600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-61700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-45300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E32" s="3">
         <v>35200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-69500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-763200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-22300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-147200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-99400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>40400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-791000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>645200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-76900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-438000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-169200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-144100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-147200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-99400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>40400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-791000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>645200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-76900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-438000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-169200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-144100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>464500</v>
+      </c>
+      <c r="E41" s="3">
         <v>545700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>623500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>610500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>595600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>441200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>475100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>434100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>412200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>446900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>538100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>315400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>333200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>314800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>391100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,358 +2331,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>345200</v>
+      </c>
+      <c r="E43" s="3">
         <v>332600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>394300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>520900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>452000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>579800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>592300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>474500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>420800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>467500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>584200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>543100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>556700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>467200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E44" s="3">
         <v>212300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>206800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>207800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>204100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>204800</v>
       </c>
       <c r="J44" s="3">
         <v>204800</v>
       </c>
       <c r="K44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="L44" s="3">
         <v>235500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>240100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>246900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>239300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>286900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>282400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>277000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E45" s="3">
         <v>233800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>256600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>433300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>320400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>345100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>466400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>294600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>113500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>126600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>138000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>131600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>152100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>138600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1265800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1324400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1481200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1764800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1575800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1570200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1647100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1525800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1235700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1234400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1390500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1270500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1315300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1292500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1636100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E47" s="3">
         <v>44200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>70300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>32500</v>
       </c>
       <c r="I47" s="3">
         <v>32500</v>
       </c>
       <c r="J47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K47" s="3">
         <v>31200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>254500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>260800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>255900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>255300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>262800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>279500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>197300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>278900</v>
+      </c>
+      <c r="E48" s="3">
         <v>276800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>287800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>317600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>325900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>345400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>189200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>312800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>317700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>331100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>330300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>328800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>350100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>378300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1836000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1817000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1835100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1897700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2083700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2076700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2103900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2127900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2501600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2575300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2564400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2386200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2378000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2395100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2412300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E52" s="3">
         <v>12200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>59200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>34100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>22200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3428900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3474600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3733600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4012600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4033000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4033300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4153300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3896700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4323000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4406200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4563700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4264200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4319000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4339400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4652500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E57" s="3">
         <v>97100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>114800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>117400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>114000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>154600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>139600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>126400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>131200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>124800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>166900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>169900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>166400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>143100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>156500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E58" s="3">
         <v>55800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>69800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>47500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>72500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>54500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>87800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>35400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2903000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2850900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2759200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2662900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>549900</v>
+      </c>
+      <c r="E59" s="3">
         <v>529000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>580900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>901200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>892400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>874200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>894100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>776100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>396100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>499300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>517900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>409400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>422000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>401500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>563700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>706300</v>
+      </c>
+      <c r="E60" s="3">
         <v>681900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>765500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1066100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1078900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1083300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1121500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>920300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>562700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>646500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>703300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3482300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3439300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3303800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3383100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1301100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1273000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1258700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1266600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1254900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1269800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1255600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1148900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1145700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1140400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1178900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>52300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>53000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>52600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>63100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>159500</v>
+      </c>
+      <c r="E62" s="3">
         <v>173700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>212900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>72500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>119300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>128200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>125900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>153400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>169500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>177000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>191400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>201500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>207100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>206500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>199200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2207900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2167700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2283100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2450900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2497400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2526600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2546100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2265200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1919500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2005500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2115600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3775100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3736000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3598200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3680800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-405000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-300400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-718900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-718500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-688100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-829600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1221000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1306900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1450500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1561700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1535600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1506700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1607200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1631500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2403500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2400700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2448100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>489100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>583000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>741200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>971700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-147200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-99400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>40400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-791000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>645200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-76900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-438000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-169200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-144100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E83" s="3">
         <v>209900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>172600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>116000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>88300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>396100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>170400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>61400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>139700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>59200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>125900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>110500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>259700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>88100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>125500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>87200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>84900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>117000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>73400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-18300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-75200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>36300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-50200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-88600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-78300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-56500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-71400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-74800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-87100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-85200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-77400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-118000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-185200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-60400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-54100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-21400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-49300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-48100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-24500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-36000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-63700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>299100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-101500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-70300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-13200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>10200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-77800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>154400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-33900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>41000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-91200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>222700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-205600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-76300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-147700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E8" s="3">
         <v>177700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>238700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>253000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>426000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>323500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>335500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>271600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>194800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>388100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>250800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>185500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>361000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>674900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>350100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>249800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>187500</v>
+      </c>
+      <c r="E9" s="3">
         <v>155900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>193800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>188700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>314700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>189800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>248800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>213700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>101200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>281900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>170900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>140700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>272100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>577600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>317600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>276300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E10" s="3">
         <v>21800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>111300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>133700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>86700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>93600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>106200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>79900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>88900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>97300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-26500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E12" s="3">
         <v>5400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,35 +1074,38 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
         <v>244400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>33900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>24400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>39500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>115700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>29700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E17" s="3">
         <v>220400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>271000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>292800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>351700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>225500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>283900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>252000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>378800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>319200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>211900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>190600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>331600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>762200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>448300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>346700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-42700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-39800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>74300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>98000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>51600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-184000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-87300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-98200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-96900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-35200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>69500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>763200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>22300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E21" s="3">
         <v>22600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>142400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>250000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>171200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>168100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>233900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>230100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>160000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>791200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>74700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-54300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-44700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E22" s="3">
         <v>34400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>166300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>49400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>47700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-88500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-67000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>68500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-218300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>724000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-231300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-146400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-145300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-20100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-24400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-87700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-133600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-71800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>63100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>62900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-193900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>66000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>708800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-29400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-236700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-167200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-147600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-88000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-134100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-72500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-191000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>64000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>706900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-235700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-169200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-144100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,52 +1814,55 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-5000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-13100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-26900</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-37200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-22000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-113200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-15300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-600000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-33700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-16600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-61700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-45300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>11400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>35200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-69500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-763200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-93000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-147200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-99400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>40400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-791000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>645200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-76900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-438000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-169200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-144100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-93000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-147200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-99400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>40400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-791000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>645200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-76900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-438000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-169200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-144100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,84 +2313,88 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>385400</v>
+      </c>
+      <c r="E41" s="3">
         <v>464500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>545700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>623500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>610500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>595600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>441200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>475100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>434100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>412200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>446900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>538100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>315400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>333200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>314800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>391100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>13700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2334,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>409600</v>
+      </c>
+      <c r="E43" s="3">
         <v>345200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>332600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>394300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>520900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>452000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>579800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>592300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>474500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>420800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>467500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>584200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>543100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>556700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>467200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>237800</v>
+      </c>
+      <c r="E44" s="3">
         <v>236900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>212300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>206800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>207800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>204100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>204800</v>
       </c>
       <c r="K44" s="3">
         <v>204800</v>
       </c>
       <c r="L44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="M44" s="3">
         <v>235500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>240100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>246900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>239300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>286900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>282400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>277000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E45" s="3">
         <v>219200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>233800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>256600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>433300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>320400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>345100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>466400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>294600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>113500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>126600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>138000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>131600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>152100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>138600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1256200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1265800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1324400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1481200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1764800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1575800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1570200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1647100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1525800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1235700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1234400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1390500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1270500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1315300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1292500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1636100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E47" s="3">
         <v>37500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>70300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>32500</v>
       </c>
       <c r="J47" s="3">
         <v>32500</v>
       </c>
       <c r="K47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="L47" s="3">
         <v>31200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>254500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>260800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>255900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>255300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>262800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>279500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>197300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>268100</v>
+      </c>
+      <c r="E48" s="3">
         <v>278900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>276800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>287800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>317600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>325900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>345400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>189200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>312800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>317700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>331100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>330300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>328800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>350100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>378300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1825700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1836000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1817000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1835100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1897700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2083700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2076700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2103900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2127900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2501600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2575300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2564400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2386200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2395100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2412300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E52" s="3">
         <v>10700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>59200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>34100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3377500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3428900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3474600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3733600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4012600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4033000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4033300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4153300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3896700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4323000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4406200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4563700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4264200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4319000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4339400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4652500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E57" s="3">
         <v>83000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>97100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>114800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>117400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>114000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>154600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>139600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>126400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>131200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>124800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>166900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>169900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>166400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>143100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>156500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E58" s="3">
         <v>73400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>55800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>69800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>47500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>72500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>54500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>87800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>35400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2903000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2850900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2759200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2662900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>561600</v>
+      </c>
+      <c r="E59" s="3">
         <v>549900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>529000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>580900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>901200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>892400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>874200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>894100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>776100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>396100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>499300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>517900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>409400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>422000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>401500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>563700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>717100</v>
+      </c>
+      <c r="E60" s="3">
         <v>706300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>681900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>765500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1066100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1078900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1083300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1121500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>920300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>562700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>646500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>703300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3482300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3439300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3303800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3383100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1330300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1301100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1273000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1258700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1266600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1254900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1269800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1255600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1148900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1145700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1140400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1178900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>52300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>53000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>52600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>63100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E62" s="3">
         <v>159500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>173700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>212900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>72500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>119300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>128200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>125900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>153400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>169500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>177000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>191400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>201500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>207100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>206500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>199200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2257800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2207900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2167700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2283100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2450900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2497400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2526600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2546100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2265200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1919500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2005500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2115600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3775100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3736000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3598200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3680800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-517900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-405000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-300400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-718900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-718500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-688100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-829600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1119700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1221000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1306900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1450500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1561700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1535600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1506700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1607200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1631500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2403500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2400700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2448100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>489100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>583000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>741200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>971700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-93000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-147200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-99400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>40400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-791000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>645200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-76900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-438000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-169200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-144100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E83" s="3">
         <v>76700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>209900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>172600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>116000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>88300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>396100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>170400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>61400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>139700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>59200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>125900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>110500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>259700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>88100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>125500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>87200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>66800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>84900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>117000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>73400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-75200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>36300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-88600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-78300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-56500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-71400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-74800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-87100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-85200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-77400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-118000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-185200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-60400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-54100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-21400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-49300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-48100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-24500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-36000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-63700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>299100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-101500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-70300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E101" s="3">
         <v>14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-13200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>10200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-81200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-77800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>154400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>41000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-91200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>222700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-205600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-76300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-147700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>208800</v>
+      </c>
+      <c r="E8" s="3">
         <v>217300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>177700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>238700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>253000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>426000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>323500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>335500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>271600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>194800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>388100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>250800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>185500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>361000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>674900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>350100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>249800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E9" s="3">
         <v>187500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>155900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>193800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>188700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>314700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>189800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>248800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>213700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>101200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>281900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>170900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>140700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>272100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>577600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>317600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>276300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E10" s="3">
         <v>29800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>111300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>133700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>86700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>57900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>93600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>106200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>79900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>44800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>88900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>97300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>32500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-26500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E12" s="3">
         <v>5700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,13 +1065,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <v>-2000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
@@ -1077,35 +1097,38 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3">
         <v>244400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>33900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>24400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>39500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>115700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>222800</v>
+      </c>
+      <c r="E17" s="3">
         <v>275200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>220400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>271000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>292800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>351700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>225500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>283900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>252000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>378800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>319200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>211900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>190600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>331600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>762200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>448300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>346700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-57900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-42700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-39800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>74300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>98000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>51600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-184000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-87300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-98200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-96900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-35200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>69500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>763200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>22300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>59200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>142400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>250000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>171200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>168100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>109500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>233900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>230100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>160000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>791200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>74700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-54300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-44700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1434,167 +1474,176 @@
         <v>34700</v>
       </c>
       <c r="E22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F22" s="3">
         <v>34400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>33700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>166300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>49400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>47700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-86800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-89900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-88500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-67000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>68500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-218300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>724000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-231300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-146400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-145300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-20100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-24400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-82600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-87700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-133600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-71800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>63100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>62900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-193900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>66000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>708800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-236700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-167200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-147600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-93900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-84700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-88000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-134100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-72500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>62400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-191000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>64000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>706900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-235700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-169200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-144100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,55 +1875,58 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-17500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-5000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-13100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-26900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-37200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-22000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-113200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-15300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-600000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-33700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-16600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-61700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>35200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-69500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-763200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-22300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-102200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-93000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-147200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-99400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>40400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-791000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>645200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-76900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-438000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-169200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-144100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-102200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-93000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-147200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-99400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>40400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-791000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>645200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-76900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-438000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-169200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-144100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,72 +2400,76 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E41" s="3">
         <v>385400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>464500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>545700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>623500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>610500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>595600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>441200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>475100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>434100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>412200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>446900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>538100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>315400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>333200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>314800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>391100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>13700</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>24</v>
@@ -2396,8 +2486,8 @@
       <c r="J42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2426,232 +2516,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>371300</v>
+      </c>
+      <c r="E43" s="3">
         <v>409600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>345200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>332600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>394300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>520900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>452000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>579800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>592300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>474500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>420800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>467500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>584200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>543100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>556700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>467200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>207800</v>
+      </c>
+      <c r="E44" s="3">
         <v>237800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>236900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>212300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>206800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>207800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>204100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>204800</v>
       </c>
       <c r="L44" s="3">
         <v>204800</v>
       </c>
       <c r="M44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="N44" s="3">
         <v>235500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>240100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>246900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>239300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>286900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>282400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>277000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E45" s="3">
         <v>209700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>219200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>233800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>256600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>433300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>320400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>345100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>466400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>294600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>113500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>126600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>138000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>131600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>152100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>138600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1194500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1256200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1265800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1324400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1481200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1764800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1575800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1570200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1647100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1525800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1235700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1234400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1390500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1270500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1315300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1292500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1636100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,167 +2764,176 @@
         <v>17200</v>
       </c>
       <c r="E47" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F47" s="3">
         <v>37500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>44200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>70300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>30200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>32500</v>
       </c>
       <c r="K47" s="3">
         <v>32500</v>
       </c>
       <c r="L47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="M47" s="3">
         <v>31200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>254500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>260800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>255900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>255300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>262800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>279500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>197300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>247600</v>
+      </c>
+      <c r="E48" s="3">
         <v>268100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>278900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>276800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>287800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>317600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>325900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>345400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>189200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>312800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>317700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>331100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>330300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>328800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>350100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>378300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1824600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1825700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1836000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1817000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1835100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1897700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2083700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2076700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2103900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2127900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2501600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2575300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2564400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2386200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2378000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2395100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2412300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E52" s="3">
         <v>10300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>59200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>34100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3293600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3377500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3428900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3474600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3733600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4012600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4033000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4033300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4153300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3896700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4323000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4406200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4563700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4264200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4319000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4339400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4652500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E57" s="3">
         <v>96700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>97100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>114800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>117400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>114000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>154600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>139600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>126400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>131200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>124800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>166900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>169900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>166400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>143100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>156500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E58" s="3">
         <v>58800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>73400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>55800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>69800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>47500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>72500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>54500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>87800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>35400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2903000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2850900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2759200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2662900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>551500</v>
+      </c>
+      <c r="E59" s="3">
         <v>561600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>549900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>529000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>580900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>901200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>892400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>874200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>894100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>776100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>396100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>499300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>517900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>409400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>422000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>401500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>563700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>746300</v>
+      </c>
+      <c r="E60" s="3">
         <v>717100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>706300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>681900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>765500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1066100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1078900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1083300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1121500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>920300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>562700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>646500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>703300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3482300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3439300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3303800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3383100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1311600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1330300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1301100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1273000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1258700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1266600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1254900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1269800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1255600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1148900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1145700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1140400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1178900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>52300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>53000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>52600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>63100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E62" s="3">
         <v>165500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>159500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>173700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>212900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>72500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>119300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>128200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>125900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>153400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>169500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>177000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>191400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>201500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>207100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>206500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>199200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2255000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2257800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2207900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2167700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2283100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2450900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2497400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2526600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2546100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2265200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1919500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2005500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2115600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3775100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3736000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3598200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3680800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-583800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-517900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-405000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-300400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-718900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-718500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-688100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-829600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1038600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1119700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1221000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1306900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1450500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1561700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1535600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1506700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1607200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1631500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2403500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2400700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2448100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>489100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>583000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>741200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>971700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-102200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-93000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-147200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-99400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>40400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-791000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>645200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-76900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-438000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-169200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-144100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E83" s="3">
         <v>114400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>76700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>209900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>77300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>172600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>116000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>88300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>396100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>170400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>61400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>139700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>42700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E89" s="3">
         <v>5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>59200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>125900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>110500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>259700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>88100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>125500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>66800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>84900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>117000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>73400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-18300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-75200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>36300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-50200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-53700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-88600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-78300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-56500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-71400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-74800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-87100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-85200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-77400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-118000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-185200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-60400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-61300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-45500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-54100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-49300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-48100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-36000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-63700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>299100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-101500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-70300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E101" s="3">
         <v>14200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-79100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-81200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-77800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>154400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-91200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>222700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-205600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-76300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-147700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>171700</v>
+      </c>
+      <c r="E8" s="3">
         <v>208800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>217300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>177700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>238700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>253000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>426000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>323500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>335500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>271600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>194800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>388100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>250800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>185500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>361000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>674900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>350100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>249800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E9" s="3">
         <v>195300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>187500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>155900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>193800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>188700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>314700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>189800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>248800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>213700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>101200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>281900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>170900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>140700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>272100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>577600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>317600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>276300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E10" s="3">
         <v>13500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>44900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>111300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>133700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>86700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>57900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>93600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>106200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>79900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>88900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>97300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>32500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-26500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E12" s="3">
         <v>5300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,16 +1085,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1100,35 +1120,38 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
         <v>244400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>33900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>24400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>39500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>115700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>29700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>172600</v>
+      </c>
+      <c r="E17" s="3">
         <v>222800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>275200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>220400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>271000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>292800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>351700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>225500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>283900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>252000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>378800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>319200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>211900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>190600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>331600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>762200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>448300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>346700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-57900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-39800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>74300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>98000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>51600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-184000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>68900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-87300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-98200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-96900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-35200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>69500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>763200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>22300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>59200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>142400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>250000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>171200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>168100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>109500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>233900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>230100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>160000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>791200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>73100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>74700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-54300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-44700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>34700</v>
+        <v>33600</v>
       </c>
       <c r="E22" s="3">
         <v>34700</v>
       </c>
       <c r="F22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="G22" s="3">
         <v>34400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>33400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>31000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>34100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>166300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>49400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>47700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-86800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-89900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-88500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-67000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>43000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>68500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-218300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>724000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-16100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-231300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-146400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-145300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E24" s="3">
         <v>5400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-20100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-24400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-92200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-82600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-87700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-133600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-71800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>63100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>62900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-193900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>708800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-29400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-236700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-167200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-147600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-93900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-84700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-88000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-134100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-72500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>62300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>62400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-191000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>64000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>706900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-235700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-169200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-144100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,58 +1936,61 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E29" s="3">
         <v>11500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-17500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-5000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-13100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-26900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-37200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-22000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-113200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-15300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-600000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-33700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-16600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-61700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-45300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>38100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>35200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-69500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-763200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-22300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-82400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-102200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-93000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-147200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-99400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>40400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-791000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>645200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-76900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-438000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-169200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-144100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-82400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-102200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-93000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-147200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-99400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>40400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-791000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>645200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-76900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-438000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-169200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-144100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>285200</v>
+      </c>
+      <c r="E41" s="3">
         <v>407000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>385400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>464500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>545700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>623500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>610500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>595600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>441200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>475100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>434100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>412200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>446900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>538100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>315400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>333200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>314800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>391100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2469,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>13700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>24</v>
@@ -2489,8 +2579,8 @@
       <c r="K42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2519,421 +2609,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>317500</v>
+      </c>
+      <c r="E43" s="3">
         <v>371300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>409600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>345200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>332600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>394300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>520900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>452000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>579800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>592300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>474500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>420800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>467500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>584200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>543100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>556700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>467200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>228800</v>
+      </c>
+      <c r="E44" s="3">
         <v>207800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>237800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>236900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>212300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>206800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>207800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>204100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>204800</v>
       </c>
       <c r="M44" s="3">
         <v>204800</v>
       </c>
       <c r="N44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="O44" s="3">
         <v>235500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>240100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>246900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>239300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>286900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>282400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>277000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E45" s="3">
         <v>208400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>209700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>219200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>233800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>256600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>433300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>320400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>345100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>466400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>294600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>113500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>126600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>138000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>131600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>152100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>138600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1061500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1194500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1256200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1265800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1324400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1481200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1764800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1575800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1570200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1647100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1525800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1235700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1234400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1390500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1270500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1315300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1292500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1636100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17200</v>
+        <v>15300</v>
       </c>
       <c r="E47" s="3">
         <v>17200</v>
       </c>
       <c r="F47" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G47" s="3">
         <v>37500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>44200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>70300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>30400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>30200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>32500</v>
       </c>
       <c r="L47" s="3">
         <v>32500</v>
       </c>
       <c r="M47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="N47" s="3">
         <v>31200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>254500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>260800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>255900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>255300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>262800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>279500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>197300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E48" s="3">
         <v>247600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>268100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>278900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>276800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>287800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>317600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>325900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>345400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>189200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>312800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>317700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>331100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>330300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>328800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>350100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>378300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1845300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1824600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1825700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1836000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1817000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1835100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1897700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2083700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2076700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2103900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2127900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2501600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2575300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2564400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2386200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2378000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2395100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2412300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E52" s="3">
         <v>9700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>59200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>22200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3157500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3293600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3377500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3428900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3474600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3733600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4012600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4033000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4033300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4153300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3896700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4323000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4406200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4563700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4264200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4319000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4339400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4652500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E57" s="3">
         <v>112500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>96700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>83000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>97100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>114800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>117400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>114000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>154600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>139600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>126400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>131200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>124800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>166900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>169900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>166400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>143100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>156500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E58" s="3">
         <v>82300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>58800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>73400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>55800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>69800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>47500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>72500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>54500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>87800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>35400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2903000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2850900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2759200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2662900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>515400</v>
+      </c>
+      <c r="E59" s="3">
         <v>551500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>561600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>549900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>529000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>580900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>901200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>892400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>874200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>894100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>776100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>396100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>499300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>517900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>409400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>422000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>401500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>563700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>682200</v>
+      </c>
+      <c r="E60" s="3">
         <v>746300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>717100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>706300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>681900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>765500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1066100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1078900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1083300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1121500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>920300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>562700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>646500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>703300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3482300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3439300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3303800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3383100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1288500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1311600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1330300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1301100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1273000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1258700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1266600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1254900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1269800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1255600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1148900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1145700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1140400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1178900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>52300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>53000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>52600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>63100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E62" s="3">
         <v>150600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>165500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>159500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>173700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>212900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>72500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>119300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>128200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>125900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>153400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>169500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>177000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>191400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>201500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>207100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>206500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>199200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2163000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2255000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2257800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2207900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2167700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2283100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2450900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2497400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2526600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2546100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2265200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1919500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2005500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2115600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3775100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3736000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3598200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3680800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>585600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-583800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-517900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-405000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-300400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-718900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-718500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-688100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-829600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>994500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1038600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1119700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1221000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1306900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1450500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1561700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1535600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1506700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1607200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1631500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2403500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2400700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2448100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>489100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>583000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>741200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>971700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-82400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-102200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-93000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-147200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-99400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>40400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-791000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>645200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-76900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-438000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-169200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-144100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E83" s="3">
         <v>49600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>114400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>76700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>209900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>77300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>172600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>116000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>88300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>396100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>170400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>61400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>139700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E89" s="3">
         <v>94400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>59200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>125900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>110500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>259700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>125500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>66800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>84900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>117000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>73400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-18300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-75200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>36300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-50200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-44400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-53700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-88600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-78300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-56500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-71400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-87100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-85200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-77400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-118000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-185200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-60400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-61300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-45500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-54100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-21400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-49300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-24500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-36000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-63700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>299100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-101500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-70300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>14200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>14000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-13200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-18100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-121800</v>
+      </c>
+      <c r="E102" s="3">
         <v>21600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-79100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-81200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-77800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>154400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-91200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>222700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-205600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-76300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-147700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>210600</v>
+      </c>
+      <c r="E8" s="3">
         <v>171700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>208800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>217300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>177700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>238700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>253000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>426000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>323500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>335500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>271600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>194800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>388100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>250800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>185500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>361000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>674900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>350100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>249800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E9" s="3">
         <v>156300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>195300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>187500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>155900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>193800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>314700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>189800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>248800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>213700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>101200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>281900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>170900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>140700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>272100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>577600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>317600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>276300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E10" s="3">
         <v>15400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>111300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>133700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>86700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>93600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>106200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>79900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>44800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>88900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>97300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-26500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E12" s="3">
         <v>4600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,19 +1105,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1123,35 +1143,38 @@
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="3">
         <v>244400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>33900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>24400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>39500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>115700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>29700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E17" s="3">
         <v>172600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>222800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>275200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>220400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>271000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>292800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>351700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>225500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>283900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>252000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>378800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>319200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>211900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>190600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>331600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>762200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>448300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>346700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-42700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-39800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>74300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>98000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>51600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-184000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-87300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-98200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-96900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-38100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-35200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>69500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>763200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>22300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E21" s="3">
         <v>58800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>59200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>142400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>44200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>250000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>171200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>168100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>109500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>233900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>230100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>160000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>791200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>73100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>74700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-54300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-44700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E22" s="3">
         <v>33600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>34700</v>
       </c>
       <c r="F22" s="3">
         <v>34700</v>
       </c>
       <c r="G22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="H22" s="3">
         <v>34400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>33900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>31000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>47700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>166300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>49400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>47700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-86800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-89900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-88500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-67000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>43000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-218300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>74700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>724000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-16100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-231300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-146400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-145300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E24" s="3">
         <v>6700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-20100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-24400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-44400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-92200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-82600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-87700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-133600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-71800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>63100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-193900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>66000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>708800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-29400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-236700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-167200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-147600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-43700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-93900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-84700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-88000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-134100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-72500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>62300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-191000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>64000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>706900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-235700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-169200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-144100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,61 +1997,64 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E29" s="3">
         <v>-6600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>11500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-17500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-5000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-13100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-26900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-37200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-22000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-113200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-15300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-600000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-33700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-61700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-45300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>38100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>35200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-69500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-763200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-22300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-50300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-82400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-102200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-93000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-147200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-99400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-791000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>645200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-76900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-438000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-169200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-144100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-50300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-82400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-102200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-93000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-147200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-99400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-791000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>645200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-76900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-438000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-169200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-144100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,84 +2574,88 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>239700</v>
+      </c>
+      <c r="E41" s="3">
         <v>285200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>407000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>385400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>464500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>545700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>623500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>610500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>595600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>441200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>475100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>434100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>412200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>446900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>538100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>315400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>333200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>314800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>391100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>13700</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>24</v>
@@ -2582,8 +2672,8 @@
       <c r="L42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2612,442 +2702,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>350900</v>
+      </c>
+      <c r="E43" s="3">
         <v>317500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>371300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>409600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>345200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>332600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>394300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>520900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>452000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>579800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>592300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>474500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>420800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>467500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>584200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>543100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>556700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>467200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>215600</v>
+      </c>
+      <c r="E44" s="3">
         <v>228800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>207800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>237800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>236900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>212300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>206800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>207800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>204100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>204800</v>
       </c>
       <c r="N44" s="3">
         <v>204800</v>
       </c>
       <c r="O44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="P44" s="3">
         <v>235500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>240100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>246900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>239300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>286900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>282400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>277000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E45" s="3">
         <v>230000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>208400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>209700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>219200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>233800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>256600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>433300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>320400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>345100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>466400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>294600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>113500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>126600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>138000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>131600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>152100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>138600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1030900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1061500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1194500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1256200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1265800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1324400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1481200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1764800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1575800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1570200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1647100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1525800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1235700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1234400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1390500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1270500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1315300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1292500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1636100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E47" s="3">
         <v>15300</v>
-      </c>
-      <c r="E47" s="3">
-        <v>17200</v>
       </c>
       <c r="F47" s="3">
         <v>17200</v>
       </c>
       <c r="G47" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H47" s="3">
         <v>37500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>70300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>30400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>32500</v>
       </c>
       <c r="M47" s="3">
         <v>32500</v>
       </c>
       <c r="N47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="O47" s="3">
         <v>31200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>254500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>260800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>255900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>255300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>262800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>279500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>197300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>221200</v>
+      </c>
+      <c r="E48" s="3">
         <v>228000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>247600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>268100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>278900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>276800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>287800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>317600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>325900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>345400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>189200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>312800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>317700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>331100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>330300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>328800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>350100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>378300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1880100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1845300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1824600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1825700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1836000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1817000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1835100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1897700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2083700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2076700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2103900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2127900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2501600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2575300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2564400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2386200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2378000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2395100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2412300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>59200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>34100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>22200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3153900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3157500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3293600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3377500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3428900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3474600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3733600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4012600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4033000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4033300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4153300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3896700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4323000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4406200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4563700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4264200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4319000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4339400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4652500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3534,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E57" s="3">
         <v>100500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>112500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>96700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>97100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>114800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>117400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>114000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>154600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>139600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>126400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>131200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>124800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>166900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>169900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>166400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>143100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>156500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E58" s="3">
         <v>66300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>82300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>58800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>73400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>55800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>69800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>47500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>72500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>87800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>35400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2903000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2850900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2759200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2662900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>551200</v>
+      </c>
+      <c r="E59" s="3">
         <v>515400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>551500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>561600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>549900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>529000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>580900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>901200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>892400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>874200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>894100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>776100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>396100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>499300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>517900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>409400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>422000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>401500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>563700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>724900</v>
+      </c>
+      <c r="E60" s="3">
         <v>682200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>746300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>717100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>706300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>681900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>765500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1066100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1078900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1083300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1121500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>920300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>562700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>646500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>703300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3482300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3439300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3303800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3383100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1265800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1288500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1311600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1330300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1301100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1273000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1258700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1266600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1254900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1269800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1255600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1148900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1145700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1140400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1178900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>52300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>53000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>52600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>63100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E62" s="3">
         <v>148500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>165500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>159500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>173700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>212900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>119300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>128200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>125900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>153400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>169500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>177000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>191400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>201500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>207100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>206500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>199200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2170900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2163000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2255000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2257800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2207900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2167700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2283100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2450900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2497400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2526600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2546100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2265200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1919500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2005500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2115600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3775100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3736000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3598200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3680800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>584100</v>
+      </c>
+      <c r="E72" s="3">
         <v>585600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-583800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-517900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-405000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-300400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-718900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-718500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-688100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-829600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>983000</v>
+      </c>
+      <c r="E76" s="3">
         <v>994500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1038600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1119700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1221000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1306900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1450500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1561700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1535600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1506700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1607200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1631500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2403500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2400700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2448100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>489100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>583000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>741200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>971700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-50300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-82400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-102200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-93000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-147200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-99400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-791000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>645200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-76900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-438000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-169200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-144100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E83" s="3">
         <v>62900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>114400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>76700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>209900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>172600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>116000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>88300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>396100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>170400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>61400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>139700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E89" s="3">
         <v>46400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>94400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>59200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>125900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>110500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>259700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>88100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>125500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>66800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>84900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>117000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>73400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-18300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-75200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>36300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-50200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-44400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-53700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-88600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-78300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-56500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-71400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-74800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-51100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-87100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-85200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-77400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-118000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-185200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-60400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-61300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-21700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-45500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-27000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-54100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-49300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-48100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-24500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-36000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>299100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-101500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-70300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>14200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>14000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-13200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-121800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-79100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-81200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-77800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>154400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>41000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-91200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>222700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-205600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-76300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-147700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,321 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>471900</v>
+      </c>
+      <c r="F8" s="3">
         <v>210600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>171700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>208800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>217300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>177700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>238700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>253000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>426000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>323500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>335500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>271600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>194800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>388100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>250800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>185500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>361000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>674900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>350100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>249800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>341700</v>
+      </c>
+      <c r="F9" s="3">
         <v>159900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>156300</v>
       </c>
-      <c r="F9" s="3">
-        <v>195300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>187500</v>
-      </c>
       <c r="H9" s="3">
+        <v>201900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>188100</v>
+      </c>
+      <c r="J9" s="3">
         <v>155900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>193800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>188700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>314700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>189800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>248800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>213700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>101200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>281900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>170900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>140700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>272100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>577600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>317600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>276300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>130200</v>
+      </c>
+      <c r="F10" s="3">
         <v>50700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>15400</v>
       </c>
-      <c r="F10" s="3">
-        <v>13500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>29800</v>
-      </c>
       <c r="H10" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J10" s="3">
         <v>21800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>44900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>64300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>111300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>133700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>86700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>57900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>93600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>106200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>79900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>44800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>88900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>97300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>32500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-26500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +1003,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="3">
         <v>5600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>5300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>5700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>8900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>14700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>8200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,25 +1141,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <v>500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
-        <v>-2000</v>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
+      <c r="H14" s="3">
+        <v>-2000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -1146,35 +1185,41 @@
       <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="3">
         <v>244400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>33900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>24400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>39500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>115700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>29700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500300</v>
+      </c>
+      <c r="F17" s="3">
         <v>190500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>172600</v>
       </c>
-      <c r="F17" s="3">
-        <v>222800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>275200</v>
-      </c>
       <c r="H17" s="3">
+        <v>229400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>275800</v>
+      </c>
+      <c r="J17" s="3">
         <v>220400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>271000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>292800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>351700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>225500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>283900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>252000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>378800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>319200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>211900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>190600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>331600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>762200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>448300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>346700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F18" s="3">
         <v>20100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-57900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-42700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-32300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-39800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>74300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>98000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>51600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>19600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-184000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>68900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>38900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>29400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-87300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-98200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-96900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1415,333 +1480,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-38100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-11400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-35200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>69500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>763200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>22300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>324200</v>
+      </c>
+      <c r="F21" s="3">
         <v>62100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>58800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>59200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>58600</v>
+      </c>
+      <c r="J21" s="3">
         <v>22600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>142400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>44200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>250000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>171200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>168100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>109500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>233900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>230100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>160000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>791200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>73100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>74700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-54300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-44700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F22" s="3">
         <v>26900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>33600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>34700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>34700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>34400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>33300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>33900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>34400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>33400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>33800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>33600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>31000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>30900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>33700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>34100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>47700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>166300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>49400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>47700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-37700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-86800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-89900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-88500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-67000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>43000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>68500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>18300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-12400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-218300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>34900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>74700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>724000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-16100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-231300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-146400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-145300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F24" s="3">
         <v>6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>32800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S24" s="3">
+        <v>8700</v>
+      </c>
+      <c r="T24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="U24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="V24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>32800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>5600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-24400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>8700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>15200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>13300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>5400</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>20800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>2300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1805,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-44400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-92200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-82600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-87700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-133600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-71800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>63100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>62900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>15600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-193900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>32300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>66000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>708800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-29400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-236700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-167200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-147600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-43700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-93900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-84700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-88000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-134100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-72500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>62300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>62400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-18600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-191000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>30500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>64000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>706900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-31600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-235700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-169200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-144100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2000,73 +2115,85 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-6600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>11500</v>
       </c>
-      <c r="G29" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J29" s="3">
         <v>-5000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-13100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-26900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-37200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-22000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-113200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-15300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-600000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-16600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-61700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-45300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>38100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>11400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>35200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-69500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-763200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-22300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-17100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-50300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-82400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-102200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-93000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-147200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-99400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>25100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>40400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-33900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-791000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>47400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>645200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-76900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-438000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-169200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-144100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-17100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-50300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-82400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-102200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-93000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-147200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-99400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>25100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>40400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-33900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-791000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>47400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>645200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-76900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-438000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-169200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-144100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>388100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>319200</v>
+      </c>
+      <c r="F41" s="3">
         <v>239700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>285200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>407000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>385400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>464500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>545700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>623500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>610500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>595600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>441200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>475100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>434100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>412200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>446900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>538100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>315400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>333200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>314800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>391100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2649,19 +2828,19 @@
         <v>1700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>13700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>24</v>
@@ -2675,11 +2854,11 @@
       <c r="M42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2705,463 +2884,511 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>278300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>419400</v>
+      </c>
+      <c r="F43" s="3">
         <v>350900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>317500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>371300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>409600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>345200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>332600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>394300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>520900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>452000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>579800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>500800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>592300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>474500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>420800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>467500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>584200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>543100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>556700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>467200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>197300</v>
+      </c>
+      <c r="F44" s="3">
         <v>215600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>228800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>207800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>237800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>236900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>212300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>206800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>207800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>204100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>204800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>204800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>235500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>240100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>246900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>239300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>286900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>282400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>277000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>105100</v>
+      </c>
+      <c r="F45" s="3">
         <v>223000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>230000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>208400</v>
       </c>
-      <c r="G45" s="3">
-        <v>209700</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>184700</v>
+      </c>
+      <c r="J45" s="3">
         <v>219200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>233800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>256600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>433300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>320400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>345100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>466400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>294600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>113500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>126600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>138000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>131600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>152100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>138600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>500800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>999700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1042700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1030900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1061500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1194500</v>
       </c>
-      <c r="G46" s="3">
-        <v>1256200</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>1231200</v>
+      </c>
+      <c r="J46" s="3">
         <v>1265800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1324400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1481200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1764800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1575800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1570200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1647100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1525800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1235700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1234400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1390500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1270500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1315300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1292500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1636100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45900</v>
+      </c>
+      <c r="F47" s="3">
         <v>18700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>15300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>17200</v>
       </c>
-      <c r="G47" s="3">
-        <v>17200</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
+        <v>42200</v>
+      </c>
+      <c r="J47" s="3">
         <v>37500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>44200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>70300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>30400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>30200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>32500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>32500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>31200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>254500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>260800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>255900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>255300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>262800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>279500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>197300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>212100</v>
+      </c>
+      <c r="F48" s="3">
         <v>221200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>228000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>247600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>268100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>278900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>276800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>287800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>300000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>317600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>325900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>345400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>189200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>312800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>317700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>331100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>330300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>328800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>350100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>378300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1614800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1604300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1880100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1845300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1824600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1825700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1836000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1817000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1835100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1897700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2083700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2076700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2103900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2127900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2501600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2575300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2564400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2386200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2378000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2395100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2412300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>10300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>12200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>59200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>19700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>25700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>28000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>24400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>22600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>18400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>18000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>21800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>21900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>34100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>22200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>28500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2884700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2924600</v>
+      </c>
+      <c r="F54" s="3">
         <v>3153900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3157500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3293600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3377500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3428900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3474600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3733600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4012600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4033000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4033300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4153300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3896700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4323000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4406200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4563700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4264200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4319000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4339400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4652500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3794,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>76400</v>
+      </c>
+      <c r="F57" s="3">
         <v>86700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>112500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>96700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>83000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>97100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>114800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>117400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>114000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>154600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>139600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>126400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>131200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>124800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>166900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>169900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>166400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>143100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>156500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>90300</v>
+      </c>
+      <c r="F58" s="3">
         <v>87000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>66300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>82300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>58800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>73400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>55800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>69800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>47500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>72500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>54500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>87800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>17800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>35400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>22400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>18500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2903000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2850900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2759200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2662900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>393300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>418500</v>
+      </c>
+      <c r="F59" s="3">
         <v>551200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>515400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>551500</v>
       </c>
-      <c r="G59" s="3">
-        <v>561600</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>561400</v>
+      </c>
+      <c r="J59" s="3">
         <v>549900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>529000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>580900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>901200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>892400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>874200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>894100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>776100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>396100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>499300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>517900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>409400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>422000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>401500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>563700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>578500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>585200</v>
+      </c>
+      <c r="F60" s="3">
         <v>724900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>682200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>746300</v>
       </c>
-      <c r="G60" s="3">
-        <v>717100</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>716900</v>
+      </c>
+      <c r="J60" s="3">
         <v>706300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>681900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>765500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1066100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1078900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1083300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1121500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>920300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>562700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>646500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>703300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3482300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3439300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3303800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3383100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1201600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1218100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1265800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1288500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1311600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1330300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1301100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1273000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1258700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1266600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1254900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1269800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1255600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1148900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1145700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1140400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1178900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>52300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>53000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>52600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>63100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>112600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>114900</v>
+      </c>
+      <c r="F62" s="3">
         <v>135900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>148500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>150600</v>
       </c>
-      <c r="G62" s="3">
-        <v>165500</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>165700</v>
+      </c>
+      <c r="J62" s="3">
         <v>159500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>173700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>212900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>72500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>119300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>128200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>125900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>153400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>169500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>177000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>191400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>201500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>207100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>206500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>199200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1935600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1961900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2170900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2163000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2255000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2257800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2207900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2167700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2283100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2450900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2497400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2526600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2546100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2265200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1919500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2005500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2115600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3775100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3736000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3598200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3680800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>569800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>575000</v>
+      </c>
+      <c r="F72" s="3">
         <v>584100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>585600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-583800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-517900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-405000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-300400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-718900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-718500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-688100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-829600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>949100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>962700</v>
+      </c>
+      <c r="F76" s="3">
         <v>983000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>994500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1038600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1119700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1221000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1306900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1450500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1561700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1535600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1506700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1607200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1631500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2403500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2400700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2448100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>489100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>583000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>741200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>971700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-17100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-50300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-82400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-102200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-93000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-147200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-99400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>25100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>40400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-33900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-791000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>47400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>645200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-76900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-438000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-169200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-144100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5415,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>352800</v>
+      </c>
+      <c r="F83" s="3">
         <v>41900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>62900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>49600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>114400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>76700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>209900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>77300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>172600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>69300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>116000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>88300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>396100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>170400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>61400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>42300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>41500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>139700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>42700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>52900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>106700</v>
+      </c>
+      <c r="F89" s="3">
         <v>53200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>46400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>94400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>59200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>125900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>110500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>259700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>88100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>125500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>87200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>66800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>84900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>7100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>117000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>73400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-18300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-13600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-14300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-13200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-20600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-75200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>36300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-17800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-18600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-18200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-23400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-16900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-31000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-50200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-17500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-19400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-77600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-56300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-44400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-53700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-69000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-88600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-78300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-56500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-71400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-74800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-58800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-51100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-87100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-85200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-77400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-118000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-185200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-60400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-61300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-16400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-115300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-21700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-45500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-27000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-54100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-21400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-49300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-19700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-48100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-24500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-36000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-63700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>299100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-15200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-101500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-14900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-70300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-6700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>14200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>14000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>5700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-13200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>10200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-14200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-18100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>3900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>7700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>2200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>79500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-45500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-121800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>21600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-79100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-81200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-77800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>154400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-33900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>41000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>21900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-91200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>222700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-17800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-205600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-76300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-147700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>228400</v>
+      </c>
+      <c r="E8" s="3">
         <v>175600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>471900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>210600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>171700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>208800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>217300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>177700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>238700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>253000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>426000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>323500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>335500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>271600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>194800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>388100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>250800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>185500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>361000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>674900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>350100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>249800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E9" s="3">
         <v>136900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>341700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>159900</v>
       </c>
-      <c r="G9" s="3">
-        <v>156300</v>
-      </c>
       <c r="H9" s="3">
+        <v>155800</v>
+      </c>
+      <c r="I9" s="3">
         <v>201900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>155900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>193800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>188700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>314700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>189800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>248800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>213700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>101200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>281900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>170900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>140700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>272100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>577600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>317600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>276300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E10" s="3">
         <v>38700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>130200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50700</v>
       </c>
-      <c r="G10" s="3">
-        <v>15400</v>
-      </c>
       <c r="H10" s="3">
+        <v>15900</v>
+      </c>
+      <c r="I10" s="3">
         <v>6900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>111300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>133700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>86700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>57900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>93600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>106200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>79900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>44800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>88900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>97300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>32500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-26500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>3200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>14700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,16 +1164,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1164,11 +1184,11 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1191,35 +1211,38 @@
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="3">
         <v>244400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>33900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>24400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>39500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>115700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>29700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E17" s="3">
         <v>164500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>190500</v>
       </c>
-      <c r="G17" s="3">
-        <v>172600</v>
-      </c>
       <c r="H17" s="3">
+        <v>172100</v>
+      </c>
+      <c r="I17" s="3">
         <v>229400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>275800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>220400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>271000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>292800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>351700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>225500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>283900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>252000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>378800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>319200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>211900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>190600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>331600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>762200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>448300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>346700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E18" s="3">
         <v>11100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-20600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-58500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-42700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-39800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>98000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>51600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-184000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>38900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-87300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-98200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-96900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,363 +1515,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>7200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-38100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-35200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>69500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>763200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>22300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E21" s="3">
         <v>71500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>324200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>62100</v>
       </c>
-      <c r="G21" s="3">
-        <v>58800</v>
-      </c>
       <c r="H21" s="3">
+        <v>59300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>58600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>142400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>44200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>250000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>171200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>168100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>109500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>233900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>230100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>160000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>791200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>73100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>74700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-54300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-44700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E22" s="3">
         <v>26000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>34700</v>
       </c>
       <c r="I22" s="3">
         <v>34700</v>
       </c>
       <c r="J22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K22" s="3">
         <v>34400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>33400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>31000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>30900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>33700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>34100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>47700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>166300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>49400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>47700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-54900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-37700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-93400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-90500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-88500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-67000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-218300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>74700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>724000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-16100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-231300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-146400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-145300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E24" s="3">
         <v>8600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-23400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6900</v>
       </c>
-      <c r="G24" s="3">
-        <v>6700</v>
-      </c>
       <c r="H24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-20100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-24400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-44400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-97000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-83000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-87700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-133600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-71800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>62900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-193900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>66000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>708800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-29400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-236700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-167200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-147600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-43700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-98700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-117000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-88000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-134100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-72500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>62400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-191000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>64000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>706900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-31600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-235700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-169200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-144100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2121,70 +2179,73 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
         <v>-2200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-6600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>11500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>16100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-5000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-13100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-26900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-37200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-22000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-113200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-600000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-33700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-16600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-61700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-45300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>38100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>35200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-69500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-763200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-22300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-50300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-87200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-93000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-147200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-99400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-791000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>47400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>645200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-76900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-438000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-169200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-144100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-50300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-87200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-93000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-147200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-99400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-791000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>47400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>645200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-76900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-438000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-169200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-144100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,84 +2834,88 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>316900</v>
+      </c>
+      <c r="E41" s="3">
         <v>388100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>319200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>239700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>285200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>407000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>385400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>464500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>545700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>623500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>610500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>595600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>441200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>475100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>434100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>412200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>446900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>538100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>315400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>333200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>314800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>391100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
         <v>1700</v>
@@ -2834,16 +2924,16 @@
         <v>1700</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>13700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -2860,8 +2950,8 @@
       <c r="O42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2890,505 +2980,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>282800</v>
+      </c>
+      <c r="E43" s="3">
         <v>278300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>419400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>350900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>317500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>371300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>409600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>345200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>332600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>394300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>520900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>452000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>579800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>592300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>474500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>420800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>467500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>584200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>543100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>556700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>467200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>241100</v>
+      </c>
+      <c r="E44" s="3">
         <v>214500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>197300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>215600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>228800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>207800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>237800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>236900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>212300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>206800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>207800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>204100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>204800</v>
       </c>
       <c r="Q44" s="3">
         <v>204800</v>
       </c>
       <c r="R44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="S44" s="3">
         <v>235500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>240100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>246900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>239300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>286900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>282400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>277000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E45" s="3">
         <v>117100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>105100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>223000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>230000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>208400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>184700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>219200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>233800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>256600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>433300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>320400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>345100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>466400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>294600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>113500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>126600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>138000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>131600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>152100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>138600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>952400</v>
+      </c>
+      <c r="E46" s="3">
         <v>999700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1042700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1030900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1061500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1194500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1231200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1265800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1324400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1481200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1764800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1575800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1570200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1647100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1525800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1235700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1234400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1390500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1270500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1315300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1292500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1636100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E47" s="3">
         <v>45500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>45900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>15300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>42200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>37500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>44200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>70300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30200</v>
-      </c>
-      <c r="O47" s="3">
-        <v>32500</v>
       </c>
       <c r="P47" s="3">
         <v>32500</v>
       </c>
       <c r="Q47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="R47" s="3">
         <v>31200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>254500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>260800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>255900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>255300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>262800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>279500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>197300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E48" s="3">
         <v>204200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>212100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>221200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>228000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>247600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>268100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>278900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>276800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>287800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>317600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>325900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>345400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>189200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>312800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>317700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>331100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>330300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>328800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>350100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>378300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1653700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1614800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1604300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1880100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1845300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1824600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1825700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1836000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1817000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1835100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1897700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2083700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2076700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2103900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2127900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2501600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2575300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2564400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2386200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2378000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2395100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2412300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E52" s="3">
         <v>20500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>59200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>24400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>22600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>21800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>21900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>34100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>22200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>28500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2826100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2884700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2924600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3153900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3157500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3293600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3377500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3428900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3474600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3733600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4012600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4033000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4033300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4153300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3896700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4323000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4406200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4563700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4264200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4319000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4339400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4652500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E57" s="3">
         <v>73600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>76400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>86700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>112500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>96700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>83000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>97100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>114800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>117400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>114000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>154600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>139600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>126400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>131200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>124800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>166900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>169900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>166400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>143100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>156500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E58" s="3">
         <v>111600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>90300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>87000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>66300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>82300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>58800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>73400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>55800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>69800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>47500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>72500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>54500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>87800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>22400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>18500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2903000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2850900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2759200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2662900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>382200</v>
+      </c>
+      <c r="E59" s="3">
         <v>393300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>418500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>551200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>515400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>551500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>561400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>549900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>529000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>580900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>901200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>892400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>874200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>894100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>776100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>396100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>499300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>517900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>409400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>422000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>401500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>563700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>530400</v>
+      </c>
+      <c r="E60" s="3">
         <v>578500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>585200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>724900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>682200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>746300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>716900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>706300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>681900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>765500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1066100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1078900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1083300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1121500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>920300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>562700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>646500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>703300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3482300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3439300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3303800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3383100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1168700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1201600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1218100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1265800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1288500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1311600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1330300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1301100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1273000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1258700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1266600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1254900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1269800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1255600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1148900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1145700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1140400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1178900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>52300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>53000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>52600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>63100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E62" s="3">
         <v>112600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>114900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>135900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>148500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>150600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>165700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>159500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>212900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>119300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>128200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>125900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>153400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>169500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>177000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>191400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>201500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>207100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>206500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>199200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1842200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1935600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1961900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2170900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2163000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2255000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2257800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2207900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2167700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2283100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2450900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2497400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2526600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2546100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2265200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1919500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2005500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2115600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3775100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3736000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3598200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3680800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>972400</v>
+      </c>
+      <c r="E72" s="3">
         <v>569800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>575000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>584100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>585600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-583800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-517900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-405000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-300400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-718900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-718500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-688100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-829600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>983900</v>
+      </c>
+      <c r="E76" s="3">
         <v>949100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>962700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>983000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>994500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1038600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1119700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1221000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1306900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1450500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1561700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1535600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1506700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1607200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1631500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2403500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2400700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2448100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>489100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>583000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>741200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>971700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-50300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-87200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-93000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-147200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-99400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-791000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>47400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>645200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-76900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-438000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-169200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-144100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E83" s="3">
         <v>53200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>352800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>62900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>114400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>76700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>209900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>77300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>172600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>69300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>116000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>88300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>396100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>170400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>61400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>139700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>42700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>52900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E89" s="3">
         <v>125500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>53200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>46400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>94400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>59200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>125900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>110500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>259700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>88100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>125500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>66800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>84900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>117000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>73400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-18300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-75200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>36300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-50200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>39500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-56300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-44400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-53700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-71400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-87100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-85200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-77400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-118000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-185200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-60400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-61300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-115300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-21700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-45500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-54100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-49300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-48100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-36000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-63700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>299100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-101500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-70300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>14200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>14000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-18100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="E102" s="3">
         <v>68900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>79500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-121800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-79100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-81200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-77800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>154400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>41000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>21900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-34700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-91200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>222700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-17800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-205600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-76300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-147700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E8" s="3">
         <v>228400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>175600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>471900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>210600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>171700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>208800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>217300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>177700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>238700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>253000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>426000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>323500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>335500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>271600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>194800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>388100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>250800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>185500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>361000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>674900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>350100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>249800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E9" s="3">
         <v>142200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>136900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>341700</v>
       </c>
-      <c r="G9" s="3">
-        <v>159900</v>
-      </c>
       <c r="H9" s="3">
+        <v>159400</v>
+      </c>
+      <c r="I9" s="3">
         <v>155800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>201900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>188100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>193800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>188700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>314700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>189800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>248800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>213700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>101200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>281900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>170900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>140700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>272100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>577600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>317600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>276300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E10" s="3">
         <v>86200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>130200</v>
       </c>
-      <c r="G10" s="3">
-        <v>50700</v>
-      </c>
       <c r="H10" s="3">
+        <v>51200</v>
+      </c>
+      <c r="I10" s="3">
         <v>15900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>111300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>133700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>86700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>57900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>93600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>106200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>79900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>44800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>88900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>97300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>32500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-26500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>14700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,19 +1184,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1187,11 +1207,11 @@
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
@@ -1214,35 +1234,38 @@
       <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="3">
         <v>244400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>33900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>24400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>39500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>115700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>29700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>227300</v>
+      </c>
+      <c r="E17" s="3">
         <v>169900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>164500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500300</v>
       </c>
-      <c r="G17" s="3">
-        <v>190500</v>
-      </c>
       <c r="H17" s="3">
+        <v>190000</v>
+      </c>
+      <c r="I17" s="3">
         <v>172100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>229400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>275800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>220400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>271000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>292800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>351700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>225500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>283900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>252000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>378800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>319200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>211900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>190600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>331600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>762200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>448300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>346700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E18" s="3">
         <v>58500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28400</v>
       </c>
-      <c r="G18" s="3">
-        <v>20100</v>
-      </c>
       <c r="H18" s="3">
+        <v>20600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-58500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-39800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>98000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>51600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-184000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>38900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-87300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-98200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-96900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,378 +1549,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-38100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-35200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>69500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>763200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>22300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E21" s="3">
         <v>114000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>71500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>324200</v>
       </c>
-      <c r="G21" s="3">
-        <v>62100</v>
-      </c>
       <c r="H21" s="3">
+        <v>62600</v>
+      </c>
+      <c r="I21" s="3">
         <v>59300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>58600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>142400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>44200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>250000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>171200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>168100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>109500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>233900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>230100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>160000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>791200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>73100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>74700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-54300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-44700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E22" s="3">
         <v>25000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>34700</v>
       </c>
       <c r="J22" s="3">
         <v>34700</v>
       </c>
       <c r="K22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="L22" s="3">
         <v>34400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>31000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>30900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>33700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>34100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>47700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>166300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>49400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>47700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>30200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-37200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-93400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-90500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-88500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-67000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>68500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-218300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>74700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>724000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-16100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-231300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-146400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-145300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>14300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-23400</v>
       </c>
-      <c r="G24" s="3">
-        <v>6900</v>
-      </c>
       <c r="H24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I24" s="3">
         <v>6800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-20100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-24400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-13600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-44000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-97000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-83000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-87700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-133600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-71800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>62900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-193900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>66000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>708800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-29400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-236700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-167200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-147600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>15500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-14300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-43300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-98700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-117000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-88000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-134100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-72500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>62300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>62400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-191000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>64000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>706900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-31600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-235700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-169200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-144100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2182,73 +2240,76 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E29" s="3">
         <v>200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-2200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-6600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>11500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>16100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-13100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-26900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-37200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-22000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-113200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-15300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-600000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-33700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-16600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-61700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-45300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>38100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>35200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-69500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-763200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-22300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>15700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-17100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-49900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-87200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-93000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-147200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-99400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>40400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-33900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-791000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>47400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>645200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-76900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-438000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-169200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-144100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>15700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-17100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-49900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-87200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-93000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-147200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-99400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>40400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-33900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-791000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>47400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>645200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-76900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-438000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-169200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-144100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,90 +2921,94 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>225100</v>
+      </c>
+      <c r="E41" s="3">
         <v>316900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>388100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>319200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>239700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>285200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>407000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>385400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>464500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>545700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>623500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>610500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>595600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>441200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>475100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>434100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>412200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>446900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>538100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>315400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>333200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>314800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>391100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1700</v>
       </c>
       <c r="F42" s="3">
         <v>1700</v>
@@ -2927,16 +3017,16 @@
         <v>1700</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>13700</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>24</v>
@@ -2953,8 +3043,8 @@
       <c r="P42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2983,526 +3073,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>345400</v>
+      </c>
+      <c r="E43" s="3">
         <v>282800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>278300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>419400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>350900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>317500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>371300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>409600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>345200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>332600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>394300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>520900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>452000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>579800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>592300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>474500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>420800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>467500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>584200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>543100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>556700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>467200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>242200</v>
+      </c>
+      <c r="E44" s="3">
         <v>241100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>214500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>197300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>215600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>228800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>207800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>237800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>236900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>212300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>206800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>207800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>204100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>204800</v>
       </c>
       <c r="R44" s="3">
         <v>204800</v>
       </c>
       <c r="S44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="T44" s="3">
         <v>235500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>240100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>246900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>239300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>286900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>282400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>277000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E45" s="3">
         <v>111400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>117100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>105100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>223000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>230000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>208400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>184700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>219200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>233800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>256600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>433300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>320400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>345100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>466400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>294600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>113500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>126600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>138000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>131600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>152100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>138600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>500800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>896400</v>
+      </c>
+      <c r="E46" s="3">
         <v>952400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>999700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1042700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1030900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1061500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1194500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1231200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1265800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1324400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1481200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1764800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1575800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1570200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1647100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1525800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1235700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1234400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1390500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1270500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1315300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1292500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1636100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E47" s="3">
         <v>48700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>45500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>45900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>42200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>37500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>44200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>70300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>30200</v>
-      </c>
-      <c r="P47" s="3">
-        <v>32500</v>
       </c>
       <c r="Q47" s="3">
         <v>32500</v>
       </c>
       <c r="R47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="S47" s="3">
         <v>31200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>254500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>260800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>255900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>255300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>262800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>279500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>197300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E48" s="3">
         <v>154600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>204200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>212100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>221200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>228000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>247600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>268100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>278900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>276800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>287800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>317600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>325900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>345400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>189200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>312800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>317700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>331100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>330300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>328800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>350100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>378300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1666900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1653700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1614800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1604300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1880100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1845300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1824600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1825700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1836000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1817000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1835100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1897700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2083700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2076700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2103900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2127900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2501600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2575300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2564400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2386200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2378000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2395100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2412300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E52" s="3">
         <v>16700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>19600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>25700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>24400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>21800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>21900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>34100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>22200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>28500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2782100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2826100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2884700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2924600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3153900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3157500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3293600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3377500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3428900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3474600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3733600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4012600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4033000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4033300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4153300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3896700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4323000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4406200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4563700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4264200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4319000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4339400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4652500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4057,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E57" s="3">
         <v>91000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>73600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>86700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>112500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>96700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>83000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>97100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>114800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>117400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>114000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>154600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>139600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>126400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>131200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>124800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>166900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>169900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>166400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>143100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>156500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E58" s="3">
         <v>57200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>111600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>90300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>87000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>66300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>82300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>58800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>73400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>55800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>69800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>47500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>72500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>54500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>87800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>22400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>18500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2903000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2850900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2759200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2662900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E59" s="3">
         <v>382200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>393300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>418500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>551200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>515400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>551500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>561400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>549900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>529000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>580900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>901200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>892400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>874200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>894100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>776100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>396100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>499300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>517900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>409400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>422000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>401500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>563700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>535300</v>
+      </c>
+      <c r="E60" s="3">
         <v>530400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>578500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>585200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>724900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>682200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>746300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>716900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>706300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>681900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>765500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1066100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1078900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1083300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1121500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>920300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>562700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>646500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>703300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3482300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3439300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3303800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3383100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1125700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1168700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1201600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1218100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1265800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1288500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1311600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1330300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1301100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1273000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1258700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1266600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1254900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1269800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1255600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1148900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1145700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1140400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1178900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>52300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>53000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>52600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>63100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E62" s="3">
         <v>103000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>112600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>114900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>135900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>148500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>150600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>165700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>159500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>173700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>212900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>119300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>128200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>125900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>153400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>169500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>177000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>191400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>201500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>207100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>206500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>199200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1789200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1842200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1935600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1961900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2170900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2163000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2255000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2257800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2207900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2167700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2283100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2450900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2497400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2526600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2546100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2265200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1919500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2005500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2115600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3775100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3736000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3598200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3680800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>994300</v>
+      </c>
+      <c r="E72" s="3">
         <v>972400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>569800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>575000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>584100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>585600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-583800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-517900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-405000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-300400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-718900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-718500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-688100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-829600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>992900</v>
+      </c>
+      <c r="E76" s="3">
         <v>983900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>949100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>962700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>983000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>994500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1038600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1119700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1221000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1306900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1450500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1561700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1535600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1506700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1607200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1631500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2403500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2400700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2448100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>489100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>583000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>741200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>971700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>15700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-17100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-49900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-87200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-93000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-147200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-99400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>40400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-33900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-791000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>47400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>645200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-76900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-438000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-169200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-144100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E83" s="3">
         <v>58800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>53200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>352800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>114400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>76700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>209900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>77300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>172600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>116000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>88300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>396100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>170400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>61400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>139700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>42700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>52900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E89" s="3">
         <v>69800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>125500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>106700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>53200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>46400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>94400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>59200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>125900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>110500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>259700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>88100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>125500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>66800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>84900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>117000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>73400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-18300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-75200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>36300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-31000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-50200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>39500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-77600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-56300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-44400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-53700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-88600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-78300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-71400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-74800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-51100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-87100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-85200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-77400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-118000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-185200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-60400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-61300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-57900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-64200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-115300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-54100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-49300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-24500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-36000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-63700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>299100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-101500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-70300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>14200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-18100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-71200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>68900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>79500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-121800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-79100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-81200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-77800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>154400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>41000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>21900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-34700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-91200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>222700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-17800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-205600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-76300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-147700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -4141,7 +4141,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>75100</v>
+        <v>34300</v>
       </c>
       <c r="E58" s="3">
         <v>57200</v>
@@ -4218,7 +4218,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>346000</v>
+        <v>386800</v>
       </c>
       <c r="E59" s="3">
         <v>382200</v>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,372 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>268400</v>
+      </c>
+      <c r="F8" s="3">
         <v>255000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>228400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>175600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>471900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>210600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>171700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>208800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>217300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>177700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>238700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>253000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>426000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>323500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>335500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>271600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>194800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>388100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>250800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>185500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>361000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>674900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>350100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>249800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>177100</v>
+      </c>
+      <c r="F9" s="3">
         <v>198700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>142200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>136900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>341700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>159400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>155800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>201900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>188100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>155900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>193800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>188700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>314700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>189800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>248800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>213700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>101200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>281900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>170900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>140700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>272100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>577600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>317600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>276300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>91300</v>
+      </c>
+      <c r="F10" s="3">
         <v>56300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>86200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>38700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>130200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>51200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>15900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>29200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>21800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>44900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>64300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>111300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>133700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>86700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>57900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>93600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>106200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>79900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>44800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>88900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>97300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>32500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>-26500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,85 +1058,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>5500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>3900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>5000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>3200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>14700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>7600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>8200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,37 +1220,43 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" s="3">
-        <v>500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
+      <c r="H14" s="3">
+        <v>500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
-        <v>-2000</v>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
+      <c r="L14" s="3">
+        <v>-2000</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>24</v>
@@ -1237,35 +1276,41 @@
       <c r="R14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="3">
         <v>244400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>4300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>2900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>33900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>24400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>39500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>115700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>29700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>184100</v>
+      </c>
+      <c r="F17" s="3">
         <v>227300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>169900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>164500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>190000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>172100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>229400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>275800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>220400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>271000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>292800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>351700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>225500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>283900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>252000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>378800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>319200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>211900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>190600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>331600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>762200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>448300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>346700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>84300</v>
+      </c>
+      <c r="F18" s="3">
         <v>27700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>58500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>11100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-28400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>20600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-58500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-42700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-32300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-39800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>74300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>98000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>51600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>19600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-184000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>68900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>38900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-5100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>29400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-87300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-98200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-96900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,393 +1615,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-38100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-11400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-35200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>6700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>69500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>763200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>22300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>144400</v>
+      </c>
+      <c r="F21" s="3">
         <v>117400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>114000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>71500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>324200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>62600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>59300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>58600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>22600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>142400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>44200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>250000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>171200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>168100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>109500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>233900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>230100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>160000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>791200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>73100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>74700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-54300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-44700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F22" s="3">
         <v>24700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>25000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>26000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>26300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>26900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>33600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>34700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>34700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>34400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>33300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>33900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>34400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>33400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>33800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>33600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>31000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>30900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>33700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>34100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>47700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>166300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>49400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>47700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>58400</v>
+      </c>
+      <c r="F23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>30200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-54900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-37200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-93400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-90500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-88500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-67000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>43000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>68500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>18300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-12400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-218300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>34900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>74700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>724000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-16100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-231300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-146400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-145300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>14300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-23400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>32800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-20100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-24400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>8700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>15200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>13300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>5400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>20800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>2300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2012,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>67800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>15900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-16300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-31500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-13200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-44000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-97000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-83000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-87700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-133600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-71800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>63100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>62900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>15600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-15300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-193900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>32300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>66000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>708800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-29400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-236700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-167200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-147600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-30200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-13900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-43300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-98700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-117000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-88000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-134100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-72500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>62300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>62400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-18600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-191000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>30500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>64000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>706900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-31600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-235700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-169200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-144100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2243,85 +2358,97 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F29" s="3">
         <v>-400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-2200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-2800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-6600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>11500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>16100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-5000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-13100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-26900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-37200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-113200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-15300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-600000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-33700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-16600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-61700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-45300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2607,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>38100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>11400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>35200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-6700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-69500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-763200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-22300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>15700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-17500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-30700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-16700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-49900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-87200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-93000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-147200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-99400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>25100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>40400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-33900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-791000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>47400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>645200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-76900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-438000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-169200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-144100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>15700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-17500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-30700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-16700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-49900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-87200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-93000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-147200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-99400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>25100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>40400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-33900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-791000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>47400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>645200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-76900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-438000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-169200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-144100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,117 +3093,125 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>301200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>298000</v>
+      </c>
+      <c r="F41" s="3">
         <v>225100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>316900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>388100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>319200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>239700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>285200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>407000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>385400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>464500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>545700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>623500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>610500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>595600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>441200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>475100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>434100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>412200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>446900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>538100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>315400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>333200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>314800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>391100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
         <v>200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1700</v>
       </c>
       <c r="H42" s="3">
         <v>1700</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>13700</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>24</v>
@@ -3046,11 +3225,11 @@
       <c r="Q42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -3076,547 +3255,595 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>307400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>361700</v>
+      </c>
+      <c r="F43" s="3">
         <v>345400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>282800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>278300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>419400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>350900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>317500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>371300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>409600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>345200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>332600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>394300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>520900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>452000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>579800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>500800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>592300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>474500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>420800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>467500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>584200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>543100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>556700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>467200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>292900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>257200</v>
+      </c>
+      <c r="F44" s="3">
         <v>242200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>241100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>214500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>197300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>215600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>228800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>207800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>237800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>236900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>212300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>206800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>200100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>207800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>204100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>204800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>204800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>235500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>240100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>246900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>239300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>286900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>282400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>277000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>99900</v>
+      </c>
+      <c r="F45" s="3">
         <v>83600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>111400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>117100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>105100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>223000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>230000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>208400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>184700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>219200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>233800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>256600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>433300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>320400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>345100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>466400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>294600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>113500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>126600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>138000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>131600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>152100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>138600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>500800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1014600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1016900</v>
+      </c>
+      <c r="F46" s="3">
         <v>896400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>952400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>999700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1042700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1030900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1061500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1194500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1231200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1265800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1324400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1481200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1764800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1575800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1570200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1647100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1525800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1235700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1234400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1390500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1270500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1315300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1292500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1636100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F47" s="3">
         <v>30800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>48700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>45500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>45900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>18700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>15300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>17200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>42200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>37500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>44200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>70300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>30400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>30200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>32500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>32500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>31200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>254500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>260800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>255900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>255300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>262800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>279500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>197300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>167300</v>
+      </c>
+      <c r="F48" s="3">
         <v>148600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>154600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>204200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>212100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>221200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>228000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>247600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>268100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>278900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>276800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>287800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>300000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>317600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>325900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>345400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>189200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>312800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>317700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>331100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>330300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>328800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>350100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>378300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1643600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1666900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1653700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1614800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1604300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1880100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1845300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1824600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1825700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1836000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1817000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1835100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1897700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2083700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2076700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2103900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2127900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2501600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2575300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2564400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2386200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2378000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2395100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2412300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +4002,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F52" s="3">
         <v>39400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>16700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>20500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>19600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>10300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>12200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>59200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>19700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>25700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>28000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>24400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>22600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>18400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>18000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>21800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>21900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>34100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>22200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>28500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2967400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2889400</v>
+      </c>
+      <c r="F54" s="3">
         <v>2782100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2826100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2884700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2924600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3153900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3157500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3293600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3377500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3428900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3474600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3733600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4012600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4033000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4033300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4153300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3896700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4323000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4406200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4563700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4264200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4319000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4339400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4652500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,470 +4317,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>92000</v>
+      </c>
+      <c r="F57" s="3">
         <v>114200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>91000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>73600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>76400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>86700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>112500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>96700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>83000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>97100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>114800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>117400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>114000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>154600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>139600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>126400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>131200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>124800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>166900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>169900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>166400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>143100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>156500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F58" s="3">
         <v>34300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>57200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>111600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>90300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>87000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>66300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>82300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>58800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>73400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>55800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>69800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>47500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>72500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>54500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>87800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>17800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>35400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>22400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>18500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2903000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>2850900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2759200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>2662900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>413400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>421600</v>
+      </c>
+      <c r="F59" s="3">
         <v>386800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>382200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>393300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>418500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>551200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>515400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>551500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>561400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>549900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>529000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>580900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>901200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>892400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>874200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>894100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>776100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>396100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>499300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>517900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>409400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>422000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>401500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>563700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>554300</v>
+      </c>
+      <c r="F60" s="3">
         <v>535300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>530400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>578500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>585200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>724900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>682200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>746300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>716900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>706300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>681900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>765500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1066100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1078900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1083300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1121500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>920300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>562700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>646500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>703300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3482300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3439300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>3303800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>3383100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1205000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1188800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1125700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1168700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1201600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1218100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1265800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1288500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1311600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1330300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1301100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1273000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1258700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1266600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1254900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1269800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1255600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1148900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1145700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1140400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1178900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>52300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>53000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>52600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>63100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>87500</v>
+      </c>
+      <c r="F62" s="3">
         <v>91100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>103000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>112600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>114900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>135900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>148500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>150600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>165700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>159500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>173700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>212900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>72500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>119300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>128200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>125900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>153400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>169500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>177000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>191400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>201500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>207100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>206500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>199200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1966100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1870100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1789200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1842200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1935600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1961900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2170900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2163000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2255000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2257800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2207900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2167700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2283100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2450900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2497400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2526600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2546100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2265200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1919500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2005500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2115600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3775100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3736000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3598200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3680800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>994600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1017900</v>
+      </c>
+      <c r="F72" s="3">
         <v>994300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>972400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>569800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>575000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>584100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>585600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-583800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-517900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-405000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-300400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-718900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-718500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-688100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-829600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1001300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1019300</v>
+      </c>
+      <c r="F76" s="3">
         <v>992900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>983900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>949100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>962700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>983000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>994500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1038600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1119700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1221000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1306900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1450500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1561700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1535600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1506700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1607200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1631500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2403500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2400700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2448100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>489100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>583000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>741200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>971700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>15700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-17500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-30700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-16700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-49900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-87200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-93000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-147200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-99400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>25100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>40400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-33900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-791000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>47400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>645200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-76900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-438000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-169200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-144100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6210,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>61500</v>
+      </c>
+      <c r="F83" s="3">
         <v>90100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>58800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>53200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>352800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>41900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>62900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>49600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>114400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>76700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>209900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>77300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>172600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>69300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>116000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>88300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>396100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>170400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>61400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>42300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>41500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>139700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>42700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>52900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>97300</v>
+      </c>
+      <c r="F89" s="3">
         <v>31000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>69800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>125500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>106700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>53200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>46400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>94400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>59200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>125900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>110500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>259700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>88100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>125500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>87200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>66800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>84900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>7100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>117000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>73400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-18300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6822,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10200</v>
+        <v>-52300</v>
       </c>
       <c r="E91" s="3">
-        <v>-9800</v>
+        <v>-50300</v>
       </c>
       <c r="F91" s="3">
-        <v>-9600</v>
+        <v>-82400</v>
       </c>
       <c r="G91" s="3">
-        <v>-17700</v>
+        <v>-84800</v>
       </c>
       <c r="H91" s="3">
-        <v>-15200</v>
+        <v>-42300</v>
       </c>
       <c r="I91" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-13200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-20600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-75200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>36300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-17800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-18600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-18200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-19500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-23400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-16900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-31000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-50200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-19400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-101400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-69900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-43800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>39500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-77600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-56300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-44400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-53700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-69000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-88600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-78300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-56500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-71400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-74800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-58800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-51100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-87100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-85200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-77400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-118000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-185200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-60400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-61300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,235 +7513,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-11400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-57900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-12900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-64200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-16400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-115300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-21700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-45500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-27000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-54100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-21400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-49300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-48100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-24500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-36000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-8600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-63700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>299100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-15200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-101500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-14900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-70300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-13200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-4700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-6700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>14200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>14000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-13200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>10200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-18100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>3900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>7700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>2200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>72900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-91800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-71200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>68900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>79500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-45500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-121800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>21600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-79100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-81200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-77800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>14900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>154400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-33900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>41000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>21900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-34700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-91200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>222700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-17800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-205600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-76300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-147700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>339100</v>
+      </c>
+      <c r="E8" s="3">
         <v>178200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>268400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>255000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>228400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>175600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>471900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>210600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>208800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>217300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>177700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>238700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>253000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>426000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>323500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>335500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>271600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>194800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>388100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>250800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>185500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>361000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>674900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>350100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>249800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>222800</v>
+      </c>
+      <c r="E9" s="3">
         <v>138200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>177100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>198700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>142200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>136900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>341700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>159400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>155800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>201900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>188100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>155900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>193800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>188700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>314700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>189800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>248800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>213700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>101200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>281900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>170900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>140700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>272100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>577600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>317600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>276300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E10" s="3">
         <v>40000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>91300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>56300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>86200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>130200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>44900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>64300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>111300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>133700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>86700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>57900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>93600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>106200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>79900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>44800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>88900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>97300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>32500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-26500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,91 +1073,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="3">
         <v>6900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>3200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>14700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>7600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>8200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,28 +1243,31 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1255,11 +1275,11 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>24</v>
@@ -1282,35 +1302,38 @@
       <c r="T14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="3">
         <v>244400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>33900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>24400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>39500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>115700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>29700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>257500</v>
+      </c>
+      <c r="E17" s="3">
         <v>171600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>184100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>227300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>169900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>164500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>190000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>172100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>229400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>275800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>220400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>271000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>292800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>351700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>225500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>283900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>252000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>378800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>319200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>211900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>190600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>331600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>762200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>448300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>346700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E18" s="3">
         <v>6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>84300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-58500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-42700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-32300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>98000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>51600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-184000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>68900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>38900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>29400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-87300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-98200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-96900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1617,423 +1650,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>4800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-38100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>69500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>763200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>22300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E21" s="3">
         <v>42900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>144400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>117400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>114000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>71500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>324200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>62600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>59300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>58600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>142400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>44200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>250000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>171200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>168100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>109500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>233900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>230100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>160000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>791200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>73100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>74700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-54300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-44700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E22" s="3">
         <v>25800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>26000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>34700</v>
       </c>
       <c r="M22" s="3">
         <v>34700</v>
       </c>
       <c r="N22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="O22" s="3">
         <v>34400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>33300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>34400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>33400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>33800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>33600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>31000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>30900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>33700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>34100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>47700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>166300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>49400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>47700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-54900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-93400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-90500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-88500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>68500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-218300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>34900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>74700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>724000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-16100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-231300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-146400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-145300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-9400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-23400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-20100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-24400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>20800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>67800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-44000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-97000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-83000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-87700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-133600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>62900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-193900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>32300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>66000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>708800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-29400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-236700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-167200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-147600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-43300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-98700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-117000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-88000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-134100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-72500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>62300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>62400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-191000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>30500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>64000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>706900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-31600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-235700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-169200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-144100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2364,82 +2422,85 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-2100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-2200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>11500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>16100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-5000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-13100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-37200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-22000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-113200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-15300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-600000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-33700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-16600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-61700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-45300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>38100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-69500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-763200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-22300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>45900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-49900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-87200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-93000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-147200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-99400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-33900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-791000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>47400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>645200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-76900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-438000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-169200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-144100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>45900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-49900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-87200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-93000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-147200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-99400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-33900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-791000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>47400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>645200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-76900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-438000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-169200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-144100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E41" s="3">
         <v>301200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>298000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>225100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>316900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>388100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>319200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>239700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>285200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>407000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>385400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>464500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>545700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>623500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>610500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>595600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>441200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>475100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>434100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>412200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>446900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>538100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>315400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>333200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>314800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>391100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3187,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
       </c>
       <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3">
         <v>200</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1700</v>
       </c>
       <c r="I42" s="3">
         <v>1700</v>
@@ -3205,16 +3295,16 @@
         <v>1700</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>13700</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>24</v>
@@ -3231,8 +3321,8 @@
       <c r="S42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3261,589 +3351,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>357400</v>
+      </c>
+      <c r="E43" s="3">
         <v>307400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>361700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>345400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>282800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>278300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>419400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>350900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>317500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>371300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>409600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>345200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>332600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>394300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>520900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>452000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>579800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>592300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>474500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>420800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>467500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>584200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>543100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>556700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>467200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>271400</v>
+      </c>
+      <c r="E44" s="3">
         <v>292900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>257200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>242200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>241100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>214500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>197300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>215600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>228800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>207800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>237800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>236900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>212300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>206800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>207800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>204100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>204800</v>
       </c>
       <c r="U44" s="3">
         <v>204800</v>
       </c>
       <c r="V44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="W44" s="3">
         <v>235500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>240100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>246900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>239300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>286900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>282400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>277000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E45" s="3">
         <v>113100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>99900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>83600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>111400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>117100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>105100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>223000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>230000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>208400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>184700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>219200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>233800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>256600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>433300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>320400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>345100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>466400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>294600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>113500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>126600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>138000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>131600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>152100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>138600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>500800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>982900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1014600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1016900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>896400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>952400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>999700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1042700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1030900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1061500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1194500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1231200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1265800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1324400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1481200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1764800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1575800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1570200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1647100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1525800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1235700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1234400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1390500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1270500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1315300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1292500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1636100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E47" s="3">
         <v>28900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>48700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>45500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>45900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>37500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>44200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>30400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>30200</v>
-      </c>
-      <c r="S47" s="3">
-        <v>32500</v>
       </c>
       <c r="T47" s="3">
         <v>32500</v>
       </c>
       <c r="U47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="V47" s="3">
         <v>31200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>254500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>260800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>255900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>255300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>262800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>279500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>197300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E48" s="3">
         <v>179100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>167300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>148600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>154600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>204200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>212100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>221200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>228000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>247600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>268100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>278900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>276800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>287800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>317600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>325900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>345400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>189200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>312800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>317700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>331100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>330300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>328800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>350100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>378300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1685900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1670000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1643600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1666900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1653700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1614800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1604300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1880100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1845300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1824600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1825700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1836000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1817000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1835100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1897700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2083700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2076700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2103900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2127900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2501600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2575300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2564400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2386200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2378000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2395100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2412300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E52" s="3">
         <v>74800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>19700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>24400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>21800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>21900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>34100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>22200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>28500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2911300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2967400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2889400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2782100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2826100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2884700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2924600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3153900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3157500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3293600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3377500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3428900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3474600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3733600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4012600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4033000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4033300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4153300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3896700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4323000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4406200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4563700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4264200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4319000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4339400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4652500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,506 +4449,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E57" s="3">
         <v>99000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>92000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>114200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>91000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>73600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>76400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>86700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>112500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>96700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>83000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>97100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>114800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>117400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>114000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>154600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>139600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>126400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>131200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>124800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>166900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>169900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>166400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>143100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>156500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E58" s="3">
         <v>90600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>40700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>34300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>57200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>111600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>90300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>87000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>66300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>82300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>73400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>55800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>69800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>47500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>72500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>54500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>87800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>35400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>22400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>18500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2903000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2850900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2759200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2662900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>360400</v>
+      </c>
+      <c r="E59" s="3">
         <v>413400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>421600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>386800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>382200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>393300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>418500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>551200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>515400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>551500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>561400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>549900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>529000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>580900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>901200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>892400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>874200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>894100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>776100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>396100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>499300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>517900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>409400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>422000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>401500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>563700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>544500</v>
+      </c>
+      <c r="E60" s="3">
         <v>603000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>554300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>535300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>530400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>578500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>585200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>724900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>682200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>746300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>716900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>706300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>681900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>765500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1066100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1078900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1083300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1121500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>920300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>562700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>646500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>703300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3482300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3439300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3303800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3383100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1210100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1205000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1188800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1125700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1168700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1201600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1218100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1265800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1288500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1311600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1330300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1301100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1273000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1258700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1266600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1254900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1269800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1255600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1148900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1145700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1140400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1178900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>52300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>53000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>52600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>63100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E62" s="3">
         <v>118400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>87500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>91100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>103000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>112600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>114900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>135900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>148500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>150600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>165700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>159500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>173700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>212900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>119300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>128200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>125900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>153400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>169500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>177000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>191400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>201500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>207100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>206500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>199200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1873500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1966100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1870100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1789200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1842200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1935600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1961900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2170900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2163000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2255000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2257800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2207900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2167700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2283100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2450900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2497400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2526600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2546100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2265200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1919500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2005500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2115600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3775100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3736000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3598200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3680800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1073600</v>
+      </c>
+      <c r="E72" s="3">
         <v>994600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1017900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>994300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>972400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>569800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>575000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>584100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>585600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-583800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-517900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-405000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-300400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-718900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-718500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-688100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-829600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1037800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1001300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1019300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>992900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>983900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>949100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>962700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>983000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>994500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1038600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1119700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1221000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1306900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1450500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1561700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1535600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1506700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1607200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1631500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2403500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2400700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2448100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>489100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>583000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>741200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>971700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>45900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-49900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-87200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-93000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-147200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-99400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-33900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-791000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>47400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>645200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-76900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-438000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-169200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-144100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E83" s="3">
         <v>31500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>61500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>90100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>58800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>352800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>62900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>114400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>76700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>209900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>77300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>172600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>69300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>116000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>88300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>396100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>170400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>61400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>42300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>139700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>42700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>52900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E89" s="3">
         <v>50300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>97300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>69800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>125500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>106700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>53200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>46400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>94400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>59200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>125900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>110500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>259700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>88100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>125500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>66800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>84900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>117000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>73400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-18300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-82400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-84800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-72700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-75200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>36300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-50200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-19400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-101400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>39500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-77600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-53700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-69000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-88600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-78300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-71400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-74800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-51100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-87100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-85200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-77400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-118000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-185200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-60400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-61300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-46900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-57900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-64200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-115300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-45500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-54100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-49300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-24500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-36000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-63700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>299100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-101500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-14900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-70300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>14200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>14000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-18100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>7700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>72900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-91800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-71200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>68900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>79500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-45500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-121800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-79100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-81200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-77800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>154400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>41000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>21900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-34700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-91200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>222700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-17800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-205600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-76300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-147700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-64700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CGGYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>CGGYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>293300</v>
+      </c>
+      <c r="E8" s="3">
         <v>339100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>178200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>268400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>255000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>228400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>175600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>471900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>210600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>171700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>208800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>217300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>177700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>238700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>253000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>426000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>323500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>335500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>271600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>194800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>388100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>250800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>185500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>361000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>674900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>350100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>249800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>328800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E9" s="3">
         <v>222800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>138200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>177100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>198700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>142200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>136900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>341700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>159400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>155800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>201900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>188100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>155900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>193800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>188700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>314700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>189800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>248800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>213700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>101200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>281900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>170900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>140700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>272100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>577600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>317600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>276300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>355900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E10" s="3">
         <v>116300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>91300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>56300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>86200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>130200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>64300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>111300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>133700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>86700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>57900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>93600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>106200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>79900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>44800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>88900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>97300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>32500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-26500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,94 +1087,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>3200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>14700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>7600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>8200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1246,31 +1263,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
@@ -1278,11 +1298,11 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>24</v>
@@ -1305,35 +1325,38 @@
       <c r="U14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="3">
         <v>244400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>33900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>24400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>39500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>115700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>29700</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>172700</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>251100</v>
+      </c>
+      <c r="E17" s="3">
         <v>257500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>171600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>184100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>227300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>169900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>164500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>190000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>172100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>229400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>275800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>220400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>271000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>292800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>351700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>225500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>283900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>252000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>378800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>319200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>211900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>190600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>331600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>762200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>448300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>346700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>571700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E18" s="3">
         <v>81600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>84300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>58500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-58500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-42700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-39800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>98000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>51600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-184000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>68900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>38900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>29400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-87300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-98200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-96900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-242900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1651,438 +1684,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-38100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>69500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>763200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>22300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E21" s="3">
         <v>159400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>42900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>144400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>117400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>114000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>71500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>324200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>62600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>59300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>58600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>142400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>44200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>250000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>171200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>168100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>109500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>233900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>230100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>160000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>791200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>73100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>74700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-54300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-44700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-158700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E22" s="3">
         <v>27200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>34700</v>
       </c>
       <c r="N22" s="3">
         <v>34700</v>
       </c>
       <c r="O22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="P22" s="3">
         <v>34400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>34400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>33400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>33800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>33600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>31000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>30900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>33700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>34100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>47700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>166300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>49400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>47700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>56200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>58400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-54900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-93400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-90500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-88500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-67000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>43000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>68500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>18300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-218300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>34900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>74700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>724000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-16100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-231300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-146400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-145300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-298300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>19100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-9400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-23400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-20100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-24400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>20800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-29600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>37100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-44000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-97000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-83000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-87700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-133600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-71800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>62900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-193900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>32300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>66000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>708800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-29400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-236700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-167200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-147600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-268700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E27" s="3">
         <v>33800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-43300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-98700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-117000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-88000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-134100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-72500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>62300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>62400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-191000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>30500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>64000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>706900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-31600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-235700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-169200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-144100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2425,85 +2483,88 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>400</v>
+      </c>
+      <c r="E29" s="3">
         <v>2100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-2200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>11500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>16100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-5000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-26900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-37200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-22000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-113200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-15300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-600000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-33700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-16600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-61700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-45300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-202300</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>24</v>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>38100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-69500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-763200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-22300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E33" s="3">
         <v>35900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>45900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-49900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-87200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-93000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-147200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-99400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-33900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-791000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>47400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>645200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-76900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-438000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-169200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-144100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E35" s="3">
         <v>35900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>45900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-49900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-87200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-93000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-147200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-99400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-33900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-791000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>47400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>645200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-76900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-438000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-169200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-144100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E41" s="3">
         <v>220000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>301200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>298000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>225100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>316900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>388100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>319200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>239700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>285200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>407000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>385400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>464500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>545700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>623500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>610500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>595600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>441200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>475100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>434100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>412200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>446900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>538100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>315400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>333200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>314800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>391100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>538800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3280,16 +3370,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>100</v>
       </c>
       <c r="H42" s="3">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3">
         <v>200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1700</v>
       </c>
       <c r="J42" s="3">
         <v>1700</v>
@@ -3298,16 +3388,16 @@
         <v>1700</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>13700</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>24</v>
@@ -3324,8 +3414,8 @@
       <c r="T42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3354,610 +3444,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>327600</v>
+      </c>
+      <c r="E43" s="3">
         <v>357400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>307400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>361700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>345400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>282800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>278300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>419400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>350900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>317500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>371300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>409600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>345200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>332600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>394300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>520900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>452000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>579800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>592300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>474500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>420800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>467500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>584200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>543100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>556700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>467200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>237500</v>
+      </c>
+      <c r="E44" s="3">
         <v>271400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>292900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>257200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>242200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>241100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>214500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>197300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>215600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>228800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>207800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>237800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>236900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>212300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>206800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>200100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>207800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>204100</v>
-      </c>
-      <c r="U44" s="3">
-        <v>204800</v>
       </c>
       <c r="V44" s="3">
         <v>204800</v>
       </c>
       <c r="W44" s="3">
+        <v>204800</v>
+      </c>
+      <c r="X44" s="3">
         <v>235500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>240100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>246900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>239300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>286900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>282400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>277000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>266300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E45" s="3">
         <v>134100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>113100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>99900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>111400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>117100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>105100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>223000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>230000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>208400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>184700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>219200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>233800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>256600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>433300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>320400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>345100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>466400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>294600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>113500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>126600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>138000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>131600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>152100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>138600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>500800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>976600</v>
+      </c>
+      <c r="E46" s="3">
         <v>982900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1014600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1016900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>896400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>952400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>999700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1042700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1030900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1061500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1194500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1231200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1265800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1324400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1481200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1764800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1575800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1570200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1647100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1525800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1235700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1234400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1390500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1270500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1315300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1292500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1636100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1476500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E47" s="3">
         <v>27700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>28900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>48700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>45500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>45900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>37500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>44200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>70300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>30400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>30200</v>
-      </c>
-      <c r="T47" s="3">
-        <v>32500</v>
       </c>
       <c r="U47" s="3">
         <v>32500</v>
       </c>
       <c r="V47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="W47" s="3">
         <v>31200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>254500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>260800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>255900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>255300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>262800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>279500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>197300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>242400</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E48" s="3">
         <v>185000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>179100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>167300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>148600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>154600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>204200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>212100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>221200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>228000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>247600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>268100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>278900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>276800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>287800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>300000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>317600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>325900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>345400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>189200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>312800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>317700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>331100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>330300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>328800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>350100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>378300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>708600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1695800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1685900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1670000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1643600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1666900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1653700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1614800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1604300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1880100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1845300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1824600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1825700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1836000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1817000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1835100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1897700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2083700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2076700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2103900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2127900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2501600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2575300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2564400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2386200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2378000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2395100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2412300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2408000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E52" s="3">
         <v>29800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>74800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>19700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>24400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>21800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>21900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>34100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>22200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>28500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2916700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2911300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2967400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2889400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2782100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2826100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2884700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2924600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3153900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3157500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3293600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3377500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3428900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3474600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3733600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4012600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4033000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4033300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4153300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3896700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4323000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4406200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4563700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4264200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4319000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4339400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4652500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4861500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,524 +4580,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E57" s="3">
         <v>111500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>99000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>92000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>114200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>91000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>73600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>86700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>112500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>96700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>83000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>97100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>114800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>117400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>114000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>154600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>139600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>126400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>131200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>124800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>166900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>169900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>166400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>143100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>156500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>157400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E58" s="3">
         <v>72600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>90600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>40700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>57200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>111600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>90300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>87000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>66300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>82300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>73400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>55800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>69800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>47500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>72500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>54500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>87800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>35400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>22400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>18500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2903000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2850900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2759200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2662900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2783700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>380500</v>
+      </c>
+      <c r="E59" s="3">
         <v>360400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>413400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>421600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>386800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>382200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>393300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>418500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>551200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>515400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>551500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>561400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>549900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>529000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>580900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>901200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>892400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>874200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>894100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>776100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>396100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>499300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>517900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>409400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>422000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>401500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>563700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>445800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>565600</v>
+      </c>
+      <c r="E60" s="3">
         <v>544500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>603000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>554300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>535300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>530400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>578500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>585200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>724900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>682200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>746300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>716900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>706300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>681900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>765500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1066100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1078900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1083300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1121500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>920300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>562700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>646500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>703300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3482300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3439300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3303800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3383100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3386900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1186900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1210100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1205000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1188800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1125700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1168700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1201600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1218100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1265800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1288500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1311600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1330300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1301100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1273000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1258700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1266600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1254900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1269800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1255600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1148900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1145700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1140400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1178900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>52300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>53000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>52600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>63100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>66700</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E62" s="3">
         <v>79200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>118400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>87500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>91100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>103000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>112600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>114900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>135900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>148500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>150600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>165700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>159500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>173700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>212900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>119300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>128200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>125900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>153400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>169500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>177000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>191400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>201500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>207100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>206500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>199200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>251100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1867100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1873500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1966100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1870100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1789200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1842200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1935600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1961900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2170900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2163000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2255000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2257800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2207900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2167700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2283100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2450900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2497400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2526600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2546100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2265200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1919500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2005500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2115600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3775100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3736000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3598200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3680800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3740800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1036200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1073600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>994600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1017900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>994300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>972400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>569800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>575000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>584100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>585600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-583800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-517900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-405000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-300400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1650400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1554600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1585500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1611000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1508800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1485700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-718900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-718500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-688100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1317000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1225300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1064800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-829600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-674600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1049600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1037800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1001300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1019300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>992900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>983900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>949100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>962700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>983000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>994500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1038600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1119700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1221000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1306900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1450500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1561700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1535600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1506700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1607200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1631500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2403500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2400700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2448100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>489100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>583000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>741200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>971700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1120700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E81" s="3">
         <v>35900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>45900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-49900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-87200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-93000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-147200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-99400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-33900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-791000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>47400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>645200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-76900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-438000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-169200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-144100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-279100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6609,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E83" s="3">
         <v>76000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>61500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>90100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>58800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>352800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>62900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>114400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>76700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>209900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>77300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>172600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>69300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>116000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>88300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>396100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>170400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>61400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>42300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>139700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>42700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>52900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>93900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E89" s="3">
         <v>52400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>50300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>97300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>69800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>125500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>106700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>46400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>94400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>59200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>125900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>110500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>259700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>88100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>125500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>66800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>84900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>117000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>73400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-18300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>95100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-78400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-50300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-82400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-84800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-75200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>36300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-31000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-50200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-19400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-35800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-79600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-50700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>16200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-101400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>39500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-77600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-44400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-53700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-69000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-88600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-78300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-56500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-71400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-74800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-58800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-51100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-87100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-85200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-77400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-118000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-185200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-60400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-61300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-108300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,262 +8008,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-52900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-46900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-57900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-64200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-115300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-54100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-49300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-48100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-24500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-36000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-63700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>299100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-15200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-101500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-14900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-70300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-48200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-13200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>14200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>14000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-13200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-14200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-18100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>7700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-81200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>72900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-91800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-71200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>68900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>79500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-121800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-79100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-81200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-77800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>154400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-33900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>41000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>21900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-34700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-91200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>222700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-17800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-205600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-76300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-147700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-64700</v>
       </c>
     </row>
